--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
   </si>
   <si>
     <t>face/face000.png</t>
   </si>
   <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
   </si>
   <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
   </si>
   <si>
     <t>car/car014.png</t>
   </si>
   <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
     <t>face/face007.png</t>
   </si>
   <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
   </si>
   <si>
     <t>flower/flower017.png</t>
   </si>
   <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
     <t>dog/dog020.png</t>
   </si>
   <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
     <t>car/car020.png</t>
   </si>
   <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
     <t>car/car031.png</t>
   </si>
   <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
     <t>face/face018.png</t>
   </si>
   <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
   </si>
   <si>
     <t>flower/flower045.png</t>
   </si>
   <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
   </si>
   <si>
     <t>face/face032.png</t>
   </si>
   <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
   </si>
   <si>
     <t>flower/flower033.png</t>
   </si>
   <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
   </si>
   <si>
     <t>face/face054.png</t>
   </si>
   <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
     <t>car/car056.png</t>
   </si>
   <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
     <t>flower/flower048.png</t>
   </si>
   <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
+    <t>dog/dog051.png</t>
   </si>
   <si>
     <t>face/face049.png</t>
   </si>
   <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
     <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.622761062640444</v>
+        <v>1.482129055424053</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.329996352640635</v>
+        <v>1.31291589311171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.544117251161669</v>
+        <v>1.520762255738312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.563873569184359</v>
+        <v>1.394184597068044</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.703647246230767</v>
+        <v>1.400607790886155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.454070385518368</v>
+        <v>1.600408693591318</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.391487051390177</v>
+        <v>1.624289001493835</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.566976328527143</v>
+        <v>1.382524628111947</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.548430588601557</v>
+        <v>1.61717623182418</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.509020199531171</v>
+        <v>1.369562406364408</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.392658059554167</v>
+        <v>1.650617023158031</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.351512139066175</v>
+        <v>1.391821549127881</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.516193620865944</v>
+        <v>1.612115807544803</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.424195670298868</v>
+        <v>1.24350126579208</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.639023075062932</v>
+        <v>1.659971778886272</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.755670979137454</v>
+        <v>1.628029360069224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.594595309284754</v>
+        <v>1.583132017297253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.551571231189454</v>
+        <v>1.454755545487406</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.217579762720641</v>
+        <v>1.804307221294975</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.519567700265338</v>
+        <v>1.597670761813096</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.47484659740541</v>
+        <v>1.529190766060827</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.53412382649239</v>
+        <v>1.890517696714456</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.421884692917854</v>
+        <v>1.58849053248467</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.346090913865187</v>
+        <v>1.603947309700434</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.599194649931618</v>
+        <v>1.731329326518661</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.579870355926637</v>
+        <v>1.649332525010428</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.410600188788902</v>
+        <v>1.519756993870295</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.301318948852923</v>
+        <v>1.392225176312401</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.595907486726716</v>
+        <v>1.55361649763151</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.621256040309827</v>
+        <v>1.173949139269098</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.573153943673183</v>
+        <v>1.42805458713462</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.587428146051957</v>
+        <v>1.880489873698878</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.612826020399972</v>
+        <v>1.489010274862614</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.602190668148409</v>
+        <v>1.654956807881121</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.440691676896093</v>
+        <v>1.661424778089699</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.648739027023577</v>
+        <v>1.518542808470668</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.663410268221737</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.35640972380298</v>
+        <v>1.552722302222098</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.567466207919212</v>
+        <v>1.350031326284364</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.608605592295771</v>
+        <v>1.61387797339845</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.66050287234723</v>
+        <v>1.41578609668071</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.443167842729888</v>
+        <v>1.5809826417411</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.6319665478811</v>
+        <v>1.522180064302364</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.396599874123864</v>
+        <v>1.60946989402184</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.379972249450526</v>
+        <v>1.253261333726033</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.384980186853905</v>
+        <v>1.599717654775037</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.406500376893547</v>
+        <v>1.118672508912236</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.372532614599105</v>
+        <v>1.532373711998088</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.451204901727641</v>
+        <v>1.684213920940255</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.359201671742366</v>
+        <v>1.723831350746503</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.318560608966625</v>
+        <v>1.600856942317125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.36077833532225</v>
+        <v>1.741475613112171</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.332358543777599</v>
+        <v>1.585590788556736</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.857919567991078</v>
+        <v>1.444291589310782</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.609783861306417</v>
+        <v>1.487093272323331</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.317799383696128</v>
+        <v>1.525392202198126</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.38681111209329</v>
+        <v>1.25380191782302</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.601749170244942</v>
+        <v>1.419992483995816</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.211616240049553</v>
+        <v>1.245470996553216</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.351950105423808</v>
+        <v>1.412496188750275</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.220815872015151</v>
+        <v>1.477696502803782</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.581300679087097</v>
+        <v>1.502842521075116</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.603875543298613</v>
+        <v>1.457379395956524</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.602285739033604</v>
+        <v>1.482239655700199</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.351328803502719</v>
+        <v>1.442493623168355</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.420009293777679</v>
+        <v>1.637925386601851</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.614311798130956</v>
+        <v>1.662588559209508</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.680293921198768</v>
+        <v>1.470241554845589</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.398184945033541</v>
+        <v>1.811742618936266</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.472743137496669</v>
+        <v>1.827287694140635</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.47648645632253</v>
+        <v>1.468950164738163</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.773884574068453</v>
+        <v>1.51270128042653</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.738324986766505</v>
+        <v>1.330707843276126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.511825357398789</v>
+        <v>1.418854394479876</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.409635038119065</v>
+        <v>1.457151198379119</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.544487145998493</v>
+        <v>1.353113198020824</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.278212744501606</v>
+        <v>1.629698453828194</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.728232780688312</v>
+        <v>1.510067311060419</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.557187014251488</v>
+        <v>1.42653675271938</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.469243008910883</v>
+        <v>1.708439070569928</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.607233708397551</v>
+        <v>1.554633546449061</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.583051367037396</v>
+        <v>1.422594777765634</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.664238008934208</v>
+        <v>1.466607388353842</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.758011184011452</v>
+        <v>1.38598128506316</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.353364959213186</v>
+        <v>1.548441754017621</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.406411418134676</v>
+        <v>1.448386847044965</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.430091827303045</v>
+        <v>1.503390938111775</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.630029888611077</v>
+        <v>1.123427899609617</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.643177907611064</v>
+        <v>1.422910632635168</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.36934629631612</v>
+        <v>1.705930440648024</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.453422598896789</v>
+        <v>1.36011015404562</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.59417667191006</v>
+        <v>1.607723562907546</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.584323493709634</v>
+        <v>1.534118544575118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.624767239788613</v>
+        <v>1.546561974608175</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.697652850621566</v>
+        <v>1.781521899052888</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.649497757484863</v>
+        <v>1.298818602980031</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.548391407095995</v>
+        <v>1.58273355490158</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.491914636035673</v>
+        <v>1.527082717601755</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.297348838807769</v>
+        <v>1.399765045827896</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.558666598780938</v>
+        <v>1.645996091524113</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.049114124305611</v>
+        <v>1.292906001678406</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.605092235078143</v>
+        <v>1.585749080167107</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.287395662695153</v>
+        <v>1.651032496378292</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.583540125498735</v>
+        <v>1.364063732312078</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.599419918664441</v>
+        <v>1.231996017270657</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.574715376149872</v>
+        <v>1.622731926985005</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1.240799184635731</v>
+        <v>1.435002527907613</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.581937218599745</v>
+        <v>1.572068334416318</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.266784666191977</v>
+        <v>1.614429325654264</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.607889171055529</v>
+        <v>1.411227447826916</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.205661067155923</v>
+        <v>1.55396344996492</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.40570921807609</v>
+        <v>1.686325791109323</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.758487357501461</v>
+        <v>1.291260788137843</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.625514987187371</v>
+        <v>1.463154577351439</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.425909752509346</v>
+        <v>1.745303269472345</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.516436318694243</v>
+        <v>1.612567526925732</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.339992291365764</v>
+        <v>1.791280333775921</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.526289771478346</v>
+        <v>1.261875806192506</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.555286344216497</v>
+        <v>1.559673101299275</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.579044634107668</v>
+        <v>1.233314057087386</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.434769204411538</v>
+        <v>1.197449846085644</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.909254717765187</v>
+        <v>1.619024893840529</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.284217835711948</v>
+        <v>1.218234789061618</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.542071125337127</v>
+        <v>1.332555904020004</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.658110160339134</v>
+        <v>1.649703455732723</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.349659505154222</v>
+        <v>1.498766536869334</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.285777958678951</v>
+        <v>1.512388394450111</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.58421921147418</v>
+        <v>1.792436404175546</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.390549499231118</v>
+        <v>1.581081925749558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.542813508053375</v>
+        <v>1.347038700962037</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.516769052619402</v>
+        <v>1.671981512585526</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.637035803798009</v>
+        <v>1.539036009425811</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.405511091090569</v>
+        <v>1.46967434654539</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.610002585825919</v>
+        <v>1.306657491487508</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.553817766106004</v>
+        <v>1.509648981199438</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.405254473401797</v>
+        <v>1.555849805019279</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.579296143230874</v>
+        <v>1.486543363711698</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.463862659898608</v>
+        <v>1.521192366782064</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.595935616202746</v>
+        <v>1.356054433811327</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.725162385285566</v>
+        <v>1.617810711699463</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.28544288567089</v>
+        <v>1.340868958793384</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.615585415167376</v>
+        <v>1.505890826139471</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.32182880852033</v>
+        <v>1.421105075660946</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.348123742075564</v>
+        <v>1.534916570298587</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.585352924039177</v>
+        <v>1.417314748913492</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.486768077353434</v>
+        <v>1.70210057882313</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.305488864136257</v>
+        <v>1.456083118512263</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.125508093451489</v>
+        <v>1.617359383939492</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.587284161799154</v>
+        <v>1.079460319761723</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.471344984134335</v>
+        <v>1.331850307266103</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.360068828604933</v>
+        <v>1.637509532510332</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.728778567735952</v>
+        <v>1.670007316852426</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.523946351133307</v>
+        <v>1.495677637806255</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.292379726421284</v>
+        <v>1.406591631715121</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.659010391448899</v>
+        <v>1.481819543184391</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.503716753788895</v>
+        <v>1.254787915330785</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.630184826436638</v>
+        <v>1.38316052210681</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.284951308715749</v>
+        <v>1.363890744164425</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.649495994406851</v>
+        <v>1.48048777899833</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.592182806228256</v>
+        <v>1.417627293694229</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.653405419812122</v>
+        <v>1.523459668961294</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.585701641989382</v>
+        <v>1.540355535493248</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.649167048971222</v>
+        <v>1.523752826799118</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.587291607514073</v>
+        <v>1.825415208787878</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.432606666080359</v>
+        <v>1.556223399185895</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.461479771237381</v>
+        <v>1.271659980208822</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.43211446214635</v>
+        <v>1.323402076888072</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.333088556319911</v>
+        <v>1.584300689837412</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.470210747232381</v>
+        <v>1.154947178743281</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.449989723580579</v>
+        <v>1.441963877780697</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.378589735677082</v>
+        <v>1.545578084827184</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.351253452460223</v>
+        <v>1.744789790264738</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.662665111881656</v>
+        <v>1.189515479058445</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.585011515343678</v>
+        <v>1.457506203582845</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.645064041996693</v>
+        <v>1.47321420238218</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.4840637711748</v>
+        <v>1.641381481240362</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.409304611470816</v>
+        <v>1.465710939275496</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.526326883799499</v>
+        <v>1.524804959513306</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.581299962291769</v>
+        <v>1.44045023713453</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.443015337568838</v>
+        <v>1.701396260611572</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.517625398854136</v>
+        <v>1.516777081812675</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.295846306588985</v>
+        <v>1.775232598508302</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.349353434157595</v>
+        <v>1.676207302874336</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.270879595507787</v>
+        <v>1.257845499972534</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.612374266403647</v>
+        <v>1.488447123958751</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.59468645584</v>
+        <v>1.618144093261192</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.431930202505126</v>
+        <v>1.573898456990299</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.443733373254425</v>
+        <v>1.223946119237759</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.747533359334311</v>
+        <v>1.280681749562129</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.447727331109488</v>
+        <v>1.759631112688953</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.42254304667688</v>
+        <v>1.442300862827754</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <v>1.740310623410366</v>
+        <v>1.339961502782006</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.505093954779277</v>
+        <v>1.599928173965499</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.278756621069385</v>
+        <v>1.428648850036377</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.634725642893025</v>
+        <v>1.393305163018248</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.659511603483381</v>
+        <v>1.292870308231616</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.211342226527543</v>
+        <v>1.246499283643334</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.484949365121659</v>
+        <v>1.524864477539612</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.560322998798584</v>
+        <v>1.443937459457175</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.380032864753226</v>
+        <v>1.270946272964858</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.382737273531382</v>
+        <v>1.601730431500058</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.469426030429921</v>
+        <v>1.357169844753334</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.496184963196182</v>
+        <v>1.530131829969834</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.429704502683582</v>
+        <v>1.450358336953349</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.667256851528081</v>
+        <v>1.620513402736325</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.523683413497521</v>
+        <v>1.571494442874628</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.490874944024896</v>
+        <v>1.193010982420641</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.610302109149789</v>
+        <v>1.199022717622984</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.601672429647252</v>
+        <v>1.450443862816007</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.527253029218193</v>
+        <v>1.473805362812907</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.49163234590395</v>
+        <v>1.474886179912806</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.685265314425356</v>
+        <v>1.533080496081248</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.666670051156511</v>
+        <v>1.488046299140604</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.638049343827516</v>
+        <v>1.215487209513679</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.354181472463394</v>
+        <v>1.707040926775294</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.454514028512525</v>
+        <v>1.424573790630235</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.549433033991654</v>
+        <v>1.776438057616242</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.790755636173281</v>
+        <v>1.517207627222142</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.595314509706531</v>
+        <v>1.597412489754534</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.158284708816036</v>
+        <v>1.282294415656554</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.556278852973721</v>
+        <v>1.371544340777918</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.702495219913863</v>
+        <v>1.567814632586585</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.642042047922248</v>
+        <v>1.478690035119568</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.490629642659605</v>
+        <v>1.448733103986235</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.14864708668728</v>
+        <v>1.556204385584401</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.544294124394726</v>
+        <v>1.370978056981353</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.377273365876788</v>
+        <v>1.814502293317661</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.355525809388047</v>
+        <v>1.268825301926596</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.452238092394475</v>
+        <v>1.711957839479633</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.527989369568154</v>
+        <v>1.453330595049722</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.350652494524112</v>
+        <v>1.515048474271347</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.418949751915687</v>
+        <v>1.340672313591178</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.54701109551086</v>
+        <v>1.547251012418545</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.272980533056284</v>
+        <v>1.585756702314858</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.44400262984616</v>
+        <v>1.411525853119098</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.657621749758727</v>
+        <v>1.513452487825187</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.349220189145392</v>
+        <v>1.519285446633285</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.457167704682662</v>
+        <v>1.502026823890741</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.493393706216606</v>
+        <v>1.621254671408992</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.470903367476815</v>
+        <v>1.466374473418949</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.331510569450432</v>
+        <v>1.437134013374537</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.276086274453688</v>
+        <v>1.856290416218524</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>1.528037377046281</v>
+        <v>1.559936195024863</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.6277776258911</v>
+        <v>1.340412626038796</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.469781558020427</v>
+        <v>1.427283945915343</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.622925948240589</v>
+        <v>1.534192314946834</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.720396727139353</v>
+        <v>1.150048183119794</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.463929476422167</v>
+        <v>1.511191605693941</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.554221180291683</v>
+        <v>1.398411845434874</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.403310841206424</v>
+        <v>1.590418611358204</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.429031263712743</v>
+        <v>1.582379677018978</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.492360237231127</v>
+        <v>1.263693330701759</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.37991572050336</v>
+        <v>1.344777970787842</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.657495920122762</v>
+        <v>1.138232262373644</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.398942474724936</v>
+        <v>1.542048079466969</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.45120564448235</v>
+        <v>1.658635189153732</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.482129055424053</v>
+        <v>1.586480541952559</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.31291589311171</v>
+        <v>1.542220674937554</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.520762255738312</v>
+        <v>1.255963849704366</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.394184597068044</v>
+        <v>1.55694746639978</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.400607790886155</v>
+        <v>1.286215778745354</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.600408693591318</v>
+        <v>1.571487193858136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.624289001493835</v>
+        <v>1.666908586874375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.382524628111947</v>
+        <v>1.402445389276493</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.61717623182418</v>
+        <v>1.299722272127604</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.369562406364408</v>
+        <v>1.367530261618727</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.650617023158031</v>
+        <v>1.652672040692665</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.391821549127881</v>
+        <v>1.305173679648312</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.612115807544803</v>
+        <v>1.596827021106253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.24350126579208</v>
+        <v>1.441842797454142</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.659971778886272</v>
+        <v>1.612738959175273</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.628029360069224</v>
+        <v>1.472352279070821</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.583132017297253</v>
+        <v>1.48228076985818</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.454755545487406</v>
+        <v>1.457495054272125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.804307221294975</v>
+        <v>1.641846664578715</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.597670761813096</v>
+        <v>1.52640025899027</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.529190766060827</v>
+        <v>1.394376937299978</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.890517696714456</v>
+        <v>1.273358054927268</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.58849053248467</v>
+        <v>1.492259908876465</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.603947309700434</v>
+        <v>1.406503886815794</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.731329326518661</v>
+        <v>1.364694075341405</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.649332525010428</v>
+        <v>1.454150926604726</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.519756993870295</v>
+        <v>1.573334421717852</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.392225176312401</v>
+        <v>1.539654663808558</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.55361649763151</v>
+        <v>1.57930480872064</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.173949139269098</v>
+        <v>1.317002380064064</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.42805458713462</v>
+        <v>1.372328024924516</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.880489873698878</v>
+        <v>1.490060492762937</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.489010274862614</v>
+        <v>1.091693394883317</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.654956807881121</v>
+        <v>1.471237426221387</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.661424778089699</v>
+        <v>1.56825603068963</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.518542808470668</v>
+        <v>1.430431051729425</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1.647443433086735</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.552722302222098</v>
+        <v>1.666022483971835</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.350031326284364</v>
+        <v>1.463005882667647</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.61387797339845</v>
+        <v>1.634647106096784</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.41578609668071</v>
+        <v>1.328430276417292</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.5809826417411</v>
+        <v>1.680426690344866</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.522180064302364</v>
+        <v>1.285638796543774</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.60946989402184</v>
+        <v>1.224815201735638</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.253261333726033</v>
+        <v>1.67870365118331</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.599717654775037</v>
+        <v>1.530732062169602</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.118672508912236</v>
+        <v>1.639935770561053</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.532373711998088</v>
+        <v>1.442559185137284</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.684213920940255</v>
+        <v>1.578753878398758</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.723831350746503</v>
+        <v>1.490671835571721</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.600856942317125</v>
+        <v>1.672905944952627</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.741475613112171</v>
+        <v>1.771802113826209</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.585590788556736</v>
+        <v>1.488451003915789</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.444291589310782</v>
+        <v>1.446827337434672</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.487093272323331</v>
+        <v>1.215496469859516</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.525392202198126</v>
+        <v>1.514157609300893</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.25380191782302</v>
+        <v>1.394029052951701</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.419992483995816</v>
+        <v>1.709268133047478</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.245470996553216</v>
+        <v>1.551437822731575</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.412496188750275</v>
+        <v>1.423157119842153</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.477696502803782</v>
+        <v>1.505705222232472</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.502842521075116</v>
+        <v>1.549271889423114</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.457379395956524</v>
+        <v>1.546766175644204</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.482239655700199</v>
+        <v>1.668232351898111</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.442493623168355</v>
+        <v>1.336908650040008</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.637925386601851</v>
+        <v>1.660307220040733</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.662588559209508</v>
+        <v>1.484576135019805</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.470241554845589</v>
+        <v>1.170319631397898</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.811742618936266</v>
+        <v>1.415421298095441</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.827287694140635</v>
+        <v>1.577630268565474</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.468950164738163</v>
+        <v>1.472579490416068</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.51270128042653</v>
+        <v>1.421208422531214</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.330707843276126</v>
+        <v>1.603065910614736</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.418854394479876</v>
+        <v>1.428453530926585</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.457151198379119</v>
+        <v>1.326129419447268</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.353113198020824</v>
+        <v>1.686157027697931</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.629698453828194</v>
+        <v>1.415178688054399</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.510067311060419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.42653675271938</v>
+        <v>1.577372227606989</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.708439070569928</v>
+        <v>1.452793019147568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.554633546449061</v>
+        <v>1.586467362744889</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.422594777765634</v>
+        <v>1.311236623719962</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.466607388353842</v>
+        <v>1.729995258759594</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.38598128506316</v>
+        <v>1.493472460929892</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.548441754017621</v>
+        <v>1.440164396080656</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1.448386847044965</v>
+        <v>1.472865110354994</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.503390938111775</v>
+        <v>1.285738851482652</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.123427899609617</v>
+        <v>1.773692779035799</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.422910632635168</v>
+        <v>1.447404828199316</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.705930440648024</v>
+        <v>1.619347616611702</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.36011015404562</v>
+        <v>1.232482507590024</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.607723562907546</v>
+        <v>1.5774929938155</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.534118544575118</v>
+        <v>1.348496348390889</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.546561974608175</v>
+        <v>1.496591322684807</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.781521899052888</v>
+        <v>1.600841673967834</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.298818602980031</v>
+        <v>1.531041875172659</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.58273355490158</v>
+        <v>1.579912644998733</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.527082717601755</v>
+        <v>1.673834881906076</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.399765045827896</v>
+        <v>1.560282816039825</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.645996091524113</v>
+        <v>1.485932805728973</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.292906001678406</v>
+        <v>1.397398126883865</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.585749080167107</v>
+        <v>1.592585017812714</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.651032496378292</v>
+        <v>1.58008098806307</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.364063732312078</v>
+        <v>1.660435832221208</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.231996017270657</v>
+        <v>1.389947922875478</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.622731926985005</v>
+        <v>1.233796349369724</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.435002527907613</v>
+        <v>1.590935545387883</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.572068334416318</v>
+        <v>1.255355392836934</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.614429325654264</v>
+        <v>1.626762896000833</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.411227447826916</v>
+        <v>1.55634816219951</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.55396344996492</v>
+        <v>1.657614044308944</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.686325791109323</v>
+        <v>1.656225092842664</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.291260788137843</v>
+        <v>1.505713765335772</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.463154577351439</v>
+        <v>1.705223797118108</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.745303269472345</v>
+        <v>1.471293170823044</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.612567526925732</v>
+        <v>1.456336379191374</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.791280333775921</v>
+        <v>1.404634208584116</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.261875806192506</v>
+        <v>1.644365444460966</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.559673101299275</v>
+        <v>1.469899867059741</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.233314057087386</v>
+        <v>1.388245340396199</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.197449846085644</v>
+        <v>1.372301771631579</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.619024893840529</v>
+        <v>1.701539098845375</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.218234789061618</v>
+        <v>1.949379191872726</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.332555904020004</v>
+        <v>1.5370345989119</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.649703455732723</v>
+        <v>1.408594447541139</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.498766536869334</v>
+        <v>1.365743504145165</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.512388394450111</v>
+        <v>1.545689287270438</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.792436404175546</v>
+        <v>1.275544233403612</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.581081925749558</v>
+        <v>1.50973541115126</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.347038700962037</v>
+        <v>1.410456899627794</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.671981512585526</v>
+        <v>1.747758523826443</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.539036009425811</v>
+        <v>1.607140321012571</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.46967434654539</v>
+        <v>1.649254036722127</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.306657491487508</v>
+        <v>1.458410542698212</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.509648981199438</v>
+        <v>1.163833825590296</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.555849805019279</v>
+        <v>1.466430112435561</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.486543363711698</v>
+        <v>1.433063529901915</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.521192366782064</v>
+        <v>1.383578742634425</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.356054433811327</v>
+        <v>1.736151327288668</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.617810711699463</v>
+        <v>1.384747775760398</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.340868958793384</v>
+        <v>1.425120174307451</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.505890826139471</v>
+        <v>1.505815789367949</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.421105075660946</v>
+        <v>1.326872887461606</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.534916570298587</v>
+        <v>1.419087611609681</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.417314748913492</v>
+        <v>1.40540990919567</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.70210057882313</v>
+        <v>1.734008123209352</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.456083118512263</v>
+        <v>1.803448426422445</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.617359383939492</v>
+        <v>1.385115171614075</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.079460319761723</v>
+        <v>1.282005293602585</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.331850307266103</v>
+        <v>1.450487150449497</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.637509532510332</v>
+        <v>1.465198115630287</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.670007316852426</v>
+        <v>1.205942111742853</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.495677637806255</v>
+        <v>1.376191785142186</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.406591631715121</v>
+        <v>1.409598580185045</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.481819543184391</v>
+        <v>1.427192143387395</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.254787915330785</v>
+        <v>1.387508704528811</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.38316052210681</v>
+        <v>1.796282872858447</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.363890744164425</v>
+        <v>1.450866478168776</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.48048777899833</v>
+        <v>1.580682209252013</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.417627293694229</v>
+        <v>1.354883934213669</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.523459668961294</v>
+        <v>1.507492611613076</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.540355535493248</v>
+        <v>1.726680876872167</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.523752826799118</v>
+        <v>1.453526558834386</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.825415208787878</v>
+        <v>1.466414576347517</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.556223399185895</v>
+        <v>1.66816998338859</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.271659980208822</v>
+        <v>1.563183601562391</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.323402076888072</v>
+        <v>1.400727111013257</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.584300689837412</v>
+        <v>1.25371639788713</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.154947178743281</v>
+        <v>1.633317543241691</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.441963877780697</v>
+        <v>1.468594427416333</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.545578084827184</v>
+        <v>1.59280762262604</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.744789790264738</v>
+        <v>1.493704734089859</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.189515479058445</v>
+        <v>1.495371354221429</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.457506203582845</v>
+        <v>1.384513667859277</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.47321420238218</v>
+        <v>1.62379908273293</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.641381481240362</v>
+        <v>1.507154336590674</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.465710939275496</v>
+        <v>1.421441641141271</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.524804959513306</v>
+        <v>1.605187065708793</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.44045023713453</v>
+        <v>1.432617412720242</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.701396260611572</v>
+        <v>1.586132863539065</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.516777081812675</v>
+        <v>1.692369268400687</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.775232598508302</v>
+        <v>1.120753117541202</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.676207302874336</v>
+        <v>1.690344874027119</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.257845499972534</v>
+        <v>1.382727089828638</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.488447123958751</v>
+        <v>1.443670310583133</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.618144093261192</v>
+        <v>1.509189214206474</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.573898456990299</v>
+        <v>1.603122214321246</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.223946119237759</v>
+        <v>1.58994121769759</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.280681749562129</v>
+        <v>1.585710896582916</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.759631112688953</v>
+        <v>1.215058143810417</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.442300862827754</v>
+        <v>1.282732869571077</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.339961502782006</v>
+        <v>1.460896545412279</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.599928173965499</v>
+        <v>1.61329101581411</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.428648850036377</v>
+        <v>1.609496500991418</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.393305163018248</v>
+        <v>1.489592045101457</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.292870308231616</v>
+        <v>1.539217626102961</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.246499283643334</v>
+        <v>1.289427420496607</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.524864477539612</v>
+        <v>1.711061970064842</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.443937459457175</v>
+        <v>1.514379225521828</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.270946272964858</v>
+        <v>1.630657785383133</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.601730431500058</v>
+        <v>1.404717383348938</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.357169844753334</v>
+        <v>1.324115751622545</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.530131829969834</v>
+        <v>1.59872237872199</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.450358336953349</v>
+        <v>1.305004253844262</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.620513402736325</v>
+        <v>1.387105678126893</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.571494442874628</v>
+        <v>1.206100236625004</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.193010982420641</v>
+        <v>1.398838073838245</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.199022717622984</v>
+        <v>1.497240474810542</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.450443862816007</v>
+        <v>1.347637046455501</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.473805362812907</v>
+        <v>1.627707467041417</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.474886179912806</v>
+        <v>1.497620135390382</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.533080496081248</v>
+        <v>1.265660113195741</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.488046299140604</v>
+        <v>1.660886670972715</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.215487209513679</v>
+        <v>1.543386855188002</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.707040926775294</v>
+        <v>1.602165276812043</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.424573790630235</v>
+        <v>1.578185551762692</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.776438057616242</v>
+        <v>1.410246246684027</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.517207627222142</v>
+        <v>1.53990659395855</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.597412489754534</v>
+        <v>1.409307591934653</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.282294415656554</v>
+        <v>1.505212433635763</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.371544340777918</v>
+        <v>1.332869777833522</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.567814632586585</v>
+        <v>1.814422242332204</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.478690035119568</v>
+        <v>1.451634236870938</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.448733103986235</v>
+        <v>1.689151046112568</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.556204385584401</v>
+        <v>1.406195616269068</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.370978056981353</v>
+        <v>1.538836113174792</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.814502293317661</v>
+        <v>1.520792199030664</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.268825301926596</v>
+        <v>1.660687488603557</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.711957839479633</v>
+        <v>1.788346286885929</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.453330595049722</v>
+        <v>1.578157045290582</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.515048474271347</v>
+        <v>1.569354679379005</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.340672313591178</v>
+        <v>1.362330250983491</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.547251012418545</v>
+        <v>1.586378234002963</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.585756702314858</v>
+        <v>1.709804429913628</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.411525853119098</v>
+        <v>1.616030116967052</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.513452487825187</v>
+        <v>1.679230358378075</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.519285446633285</v>
+        <v>1.445290736535306</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.502026823890741</v>
+        <v>1.335483263317958</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.621254671408992</v>
+        <v>1.407736001293724</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.466374473418949</v>
+        <v>1.756677544029619</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.437134013374537</v>
+        <v>1.468336568667746</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.856290416218524</v>
+        <v>1.893696031880861</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.559936195024863</v>
+        <v>1.699824450971776</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.340412626038796</v>
+        <v>1.525358303693961</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.427283945915343</v>
+        <v>1.584812774285589</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.534192314946834</v>
+        <v>1.492109319578085</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.150048183119794</v>
+        <v>1.647591809268766</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.511191605693941</v>
+        <v>1.738250318930806</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.398411845434874</v>
+        <v>1.355552559168672</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.590418611358204</v>
+        <v>1.675197643898706</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.582379677018978</v>
+        <v>1.369871498599686</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.263693330701759</v>
+        <v>1.479313571909789</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.344777970787842</v>
+        <v>1.402734971603622</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.138232262373644</v>
+        <v>1.469452006691134</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.542048079466969</v>
+        <v>1.517105809272461</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.658635189153732</v>
+        <v>1.609842190136272</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
     <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.586480541952559</v>
+        <v>1.831609156103384</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.542220674937554</v>
+        <v>1.388610162045147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.255963849704366</v>
+        <v>1.725266294450563</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.55694746639978</v>
+        <v>1.372813146980883</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.286215778745354</v>
+        <v>1.615309524751215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.571487193858136</v>
+        <v>1.294025629869695</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.666908586874375</v>
+        <v>1.17605117072915</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.402445389276493</v>
+        <v>1.716887232827648</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.299722272127604</v>
+        <v>1.473397909017003</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.367530261618727</v>
+        <v>1.476860498121219</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.652672040692665</v>
+        <v>1.571729753926341</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.305173679648312</v>
+        <v>1.753863908189796</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.596827021106253</v>
+        <v>1.395222302328027</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.441842797454142</v>
+        <v>1.486121842885522</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.612738959175273</v>
+        <v>1.464841200298254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.472352279070821</v>
+        <v>1.603921613235904</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.48228076985818</v>
+        <v>1.499759396881613</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.457495054272125</v>
+        <v>1.670999276446317</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.641846664578715</v>
+        <v>1.355216360865392</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.52640025899027</v>
+        <v>1.489740226168704</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.394376937299978</v>
+        <v>1.615947928230947</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.273358054927268</v>
+        <v>1.323671236895029</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.492259908876465</v>
+        <v>1.656824618522437</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.406503886815794</v>
+        <v>1.675598526928938</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.364694075341405</v>
+        <v>1.522087818610308</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.454150926604726</v>
+        <v>1.59879065678956</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.573334421717852</v>
+        <v>1.506760742765223</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.539654663808558</v>
+        <v>1.700529102129623</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.57930480872064</v>
+        <v>1.389230025280856</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.317002380064064</v>
+        <v>1.38746811266028</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.372328024924516</v>
+        <v>1.244287485033291</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.490060492762937</v>
+        <v>1.454684352718548</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.091693394883317</v>
+        <v>1.377632599938686</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.471237426221387</v>
+        <v>1.572771222896006</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.56825603068963</v>
+        <v>1.61123221279697</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.430431051729425</v>
+        <v>1.390067527855802</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.647443433086735</v>
+        <v>1.204201795454934</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.666022483971835</v>
+        <v>1.616122886029904</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1.463005882667647</v>
+        <v>1.562878408385711</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.634647106096784</v>
+        <v>1.292138258360387</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.328430276417292</v>
+        <v>1.602359875856236</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.680426690344866</v>
+        <v>1.540025923769442</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.285638796543774</v>
+        <v>1.683084571376182</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.224815201735638</v>
+        <v>1.501396077392492</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.67870365118331</v>
+        <v>1.437391891476857</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.530732062169602</v>
+        <v>1.455361664255561</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.639935770561053</v>
+        <v>1.622017660110598</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.442559185137284</v>
+        <v>1.501269098514177</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.578753878398758</v>
+        <v>1.72274889746533</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.490671835571721</v>
+        <v>1.319052521280387</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.672905944952627</v>
+        <v>1.395061377816968</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.771802113826209</v>
+        <v>1.503893798823296</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.488451003915789</v>
+        <v>1.542950479228211</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.446827337434672</v>
+        <v>1.556853618324745</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.215496469859516</v>
+        <v>1.398613774895055</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.514157609300893</v>
+        <v>1.319307844779525</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.394029052951701</v>
+        <v>1.433780678105049</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.709268133047478</v>
+        <v>1.480395788108261</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.551437822731575</v>
+        <v>1.554520703823381</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.423157119842153</v>
+        <v>1.408873994157223</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.505705222232472</v>
+        <v>1.522273898522508</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.549271889423114</v>
+        <v>1.55336319241288</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.546766175644204</v>
+        <v>1.243648558950847</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.668232351898111</v>
+        <v>1.377374106926113</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.336908650040008</v>
+        <v>1.351061032942383</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.660307220040733</v>
+        <v>1.230658331948779</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.484576135019805</v>
+        <v>1.454561357350449</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.170319631397898</v>
+        <v>1.486567762090949</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.415421298095441</v>
+        <v>1.583751458826174</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.577630268565474</v>
+        <v>1.714162068647939</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1.472579490416068</v>
+        <v>1.53179762943515</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.421208422531214</v>
+        <v>1.338265742435744</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.603065910614736</v>
+        <v>1.554910583496778</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.428453530926585</v>
+        <v>1.447782160736486</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.326129419447268</v>
+        <v>1.517416750799377</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.686157027697931</v>
+        <v>1.489283268648934</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.415178688054399</v>
+        <v>1.527347641436204</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1.416405023470201</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.577372227606989</v>
+        <v>1.539510211603217</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.452793019147568</v>
+        <v>1.583988361812203</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.586467362744889</v>
+        <v>1.29296614332404</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.311236623719962</v>
+        <v>1.407078549704197</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.729995258759594</v>
+        <v>1.502848665408853</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.493472460929892</v>
+        <v>1.41469810362274</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.440164396080656</v>
+        <v>1.38776254811787</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.472865110354994</v>
+        <v>1.43576848074043</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.285738851482652</v>
+        <v>1.456563122948142</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.773692779035799</v>
+        <v>1.776765202671503</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.447404828199316</v>
+        <v>1.520721828705323</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.619347616611702</v>
+        <v>1.806116289558864</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.232482507590024</v>
+        <v>1.420916807094108</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.5774929938155</v>
+        <v>1.35138815910939</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.348496348390889</v>
+        <v>1.412559512197437</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.496591322684807</v>
+        <v>1.264442920142149</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.600841673967834</v>
+        <v>1.578352765103504</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.531041875172659</v>
+        <v>1.606538180312498</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.579912644998733</v>
+        <v>1.521826955271644</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.673834881906076</v>
+        <v>1.410522586715197</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.560282816039825</v>
+        <v>1.487842543217138</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.485932805728973</v>
+        <v>1.494766565540713</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.397398126883865</v>
+        <v>1.467308987760409</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.592585017812714</v>
+        <v>1.651092758516734</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.58008098806307</v>
+        <v>1.546466318624557</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.660435832221208</v>
+        <v>1.490841492295259</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.389947922875478</v>
+        <v>1.232337135864898</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.233796349369724</v>
+        <v>1.571818596180443</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.590935545387883</v>
+        <v>1.453533783582156</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.255355392836934</v>
+        <v>1.488272999104659</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.626762896000833</v>
+        <v>1.513345986360563</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.55634816219951</v>
+        <v>1.396702131271858</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.657614044308944</v>
+        <v>1.365849539822018</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.656225092842664</v>
+        <v>1.245008881467579</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.505713765335772</v>
+        <v>1.728426227395168</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.705223797118108</v>
+        <v>1.447076684230666</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.471293170823044</v>
+        <v>1.266471261481752</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.456336379191374</v>
+        <v>1.431664163791987</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.404634208584116</v>
+        <v>1.345979391205752</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.644365444460966</v>
+        <v>1.45677431904806</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.469899867059741</v>
+        <v>1.464274703158257</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.388245340396199</v>
+        <v>1.477384840928122</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.372301771631579</v>
+        <v>1.573503148537512</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.701539098845375</v>
+        <v>1.386047785024486</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.949379191872726</v>
+        <v>1.51497930209675</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.5370345989119</v>
+        <v>1.573315274654782</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.408594447541139</v>
+        <v>1.588008412394625</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.365743504145165</v>
+        <v>1.584148195987913</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.545689287270438</v>
+        <v>1.538730993523184</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.275544233403612</v>
+        <v>1.482079031238427</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.50973541115126</v>
+        <v>1.539601173192189</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.410456899627794</v>
+        <v>1.441276922006382</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.747758523826443</v>
+        <v>1.535046053698531</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.607140321012571</v>
+        <v>1.468170054835182</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.649254036722127</v>
+        <v>1.387935354598233</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.458410542698212</v>
+        <v>1.590368473934614</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.163833825590296</v>
+        <v>1.163878463387097</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.466430112435561</v>
+        <v>1.471028514122621</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.433063529901915</v>
+        <v>1.494482472836883</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.383578742634425</v>
+        <v>1.434742671142374</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.736151327288668</v>
+        <v>1.323407643514922</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.384747775760398</v>
+        <v>1.502016874767923</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.425120174307451</v>
+        <v>1.339444167126316</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.505815789367949</v>
+        <v>1.627898454203736</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.326872887461606</v>
+        <v>1.397748887133026</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.419087611609681</v>
+        <v>1.160349219084739</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.40540990919567</v>
+        <v>1.553395892370357</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.734008123209352</v>
+        <v>1.668614227647617</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.803448426422445</v>
+        <v>1.674562101636037</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.385115171614075</v>
+        <v>1.74044111597529</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.282005293602585</v>
+        <v>1.387390438818624</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.450487150449497</v>
+        <v>1.656813842494297</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.465198115630287</v>
+        <v>1.513180001192092</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.205942111742853</v>
+        <v>1.665710293504684</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.376191785142186</v>
+        <v>1.48545032108448</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.409598580185045</v>
+        <v>1.415474767829796</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.427192143387395</v>
+        <v>1.260929775589887</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.387508704528811</v>
+        <v>1.502123768144663</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.796282872858447</v>
+        <v>1.516813287769102</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.450866478168776</v>
+        <v>1.623774649640894</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.580682209252013</v>
+        <v>1.578316072981021</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.354883934213669</v>
+        <v>1.136298149308727</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.507492611613076</v>
+        <v>1.50664376942736</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.726680876872167</v>
+        <v>1.554251278680894</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.453526558834386</v>
+        <v>1.61059556522944</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.466414576347517</v>
+        <v>1.879077879563157</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.66816998338859</v>
+        <v>1.437628316811874</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.563183601562391</v>
+        <v>1.311591355570688</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.400727111013257</v>
+        <v>1.701000374644843</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.25371639788713</v>
+        <v>1.491798865096565</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.633317543241691</v>
+        <v>1.259468847512433</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.468594427416333</v>
+        <v>1.530515841725847</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.59280762262604</v>
+        <v>1.34687706417267</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.493704734089859</v>
+        <v>1.45753257237335</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.495371354221429</v>
+        <v>1.337215860933611</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.384513667859277</v>
+        <v>1.662793333802717</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.62379908273293</v>
+        <v>1.744420809403149</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.507154336590674</v>
+        <v>1.244202932248485</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.421441641141271</v>
+        <v>1.539341495208063</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.605187065708793</v>
+        <v>1.451937150515018</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.432617412720242</v>
+        <v>1.540988177994508</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.586132863539065</v>
+        <v>1.704451114585562</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.692369268400687</v>
+        <v>1.47606039056197</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.120753117541202</v>
+        <v>1.670757988973247</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.690344874027119</v>
+        <v>1.455897606276311</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.382727089828638</v>
+        <v>1.452573420906512</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.443670310583133</v>
+        <v>1.591214703958801</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.509189214206474</v>
+        <v>1.484081819973927</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.603122214321246</v>
+        <v>1.496713526492854</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.58994121769759</v>
+        <v>1.510397844522653</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.585710896582916</v>
+        <v>1.190432341488965</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.215058143810417</v>
+        <v>1.615513321857778</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.282732869571077</v>
+        <v>1.424217957111525</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.460896545412279</v>
+        <v>1.532113134135024</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.61329101581411</v>
+        <v>1.588706698436974</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.609496500991418</v>
+        <v>1.921791240136884</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.489592045101457</v>
+        <v>1.370335130935977</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.539217626102961</v>
+        <v>1.380730158307364</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.289427420496607</v>
+        <v>1.467259122205492</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.711061970064842</v>
+        <v>1.626223329936498</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.514379225521828</v>
+        <v>1.323944083966302</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.630657785383133</v>
+        <v>1.545797610828489</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.404717383348938</v>
+        <v>1.254055870149433</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.324115751622545</v>
+        <v>1.828704149310512</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.59872237872199</v>
+        <v>1.681083777904149</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.305004253844262</v>
+        <v>1.138270764200839</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.387105678126893</v>
+        <v>1.493354635745255</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.206100236625004</v>
+        <v>1.65018572189403</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.398838073838245</v>
+        <v>1.157924226430549</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.497240474810542</v>
+        <v>1.654429862911629</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.347637046455501</v>
+        <v>1.468198511022449</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.627707467041417</v>
+        <v>1.438261713172794</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.497620135390382</v>
+        <v>1.393091018123396</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.265660113195741</v>
+        <v>1.47960382418001</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.660886670972715</v>
+        <v>1.459262449192168</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.543386855188002</v>
+        <v>1.515502639398741</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.602165276812043</v>
+        <v>1.320311501350237</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.578185551762692</v>
+        <v>1.247111357085008</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.410246246684027</v>
+        <v>1.56151632481599</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.53990659395855</v>
+        <v>1.358355478929367</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.409307591934653</v>
+        <v>1.698994725338641</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.505212433635763</v>
+        <v>1.634141345791297</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.332869777833522</v>
+        <v>1.490845943346352</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.814422242332204</v>
+        <v>1.464733141717445</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.451634236870938</v>
+        <v>1.230736200160654</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.689151046112568</v>
+        <v>1.347748811080825</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.406195616269068</v>
+        <v>1.375441023409452</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.538836113174792</v>
+        <v>1.379966090698458</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.520792199030664</v>
+        <v>1.459075990980624</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.660687488603557</v>
+        <v>1.366793119401518</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.788346286885929</v>
+        <v>1.577950804911262</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.578157045290582</v>
+        <v>1.640826075264588</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.569354679379005</v>
+        <v>1.353287946461059</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.362330250983491</v>
+        <v>1.316279887758357</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.586378234002963</v>
+        <v>1.333436831646006</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.709804429913628</v>
+        <v>1.508632978994111</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.616030116967052</v>
+        <v>1.514737120935591</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.679230358378075</v>
+        <v>1.462489949781753</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.445290736535306</v>
+        <v>1.469039907909418</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.335483263317958</v>
+        <v>1.559682353415524</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.407736001293724</v>
+        <v>1.494161266241106</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.756677544029619</v>
+        <v>1.379874261652756</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.468336568667746</v>
+        <v>1.402895791521791</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.893696031880861</v>
+        <v>1.524346092694075</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.699824450971776</v>
+        <v>1.328190920405036</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.525358303693961</v>
+        <v>1.410558453425188</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.584812774285589</v>
+        <v>1.464069063938002</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.492109319578085</v>
+        <v>1.574272443985006</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.647591809268766</v>
+        <v>1.462735055042944</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.738250318930806</v>
+        <v>1.378843560381671</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.355552559168672</v>
+        <v>1.51722366431161</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.675197643898706</v>
+        <v>1.568258558247863</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.369871498599686</v>
+        <v>1.614968094153992</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.479313571909789</v>
+        <v>1.649643210876867</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.402734971603622</v>
+        <v>1.55390585823308</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.469452006691134</v>
+        <v>1.332343877710422</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.517105809272461</v>
+        <v>1.503449380955217</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.609842190136272</v>
+        <v>1.531485507746462</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,592 +31,595 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
+    <t>dog/dog047.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
@@ -625,190 +628,187 @@
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>flower/flower083.jpg</t>
   </si>
   <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>flower/flower085.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.831609156103384</v>
+        <v>1.636112340291536</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.388610162045147</v>
+        <v>1.394541100791236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.725266294450563</v>
+        <v>1.610335777016201</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.372813146980883</v>
+        <v>1.630122418544637</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.615309524751215</v>
+        <v>1.643493433899653</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.294025629869695</v>
+        <v>1.698715718194563</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.17605117072915</v>
+        <v>1.626886252220785</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.716887232827648</v>
+        <v>1.547450906302358</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.473397909017003</v>
+        <v>1.488094462354679</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.476860498121219</v>
+        <v>1.575171145586287</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.571729753926341</v>
+        <v>1.358514414066055</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.753863908189796</v>
+        <v>1.56791190256591</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.395222302328027</v>
+        <v>1.683443286678285</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.486121842885522</v>
+        <v>1.240807762022742</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.464841200298254</v>
+        <v>1.270103252045834</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.603921613235904</v>
+        <v>1.587873825188917</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.499759396881613</v>
+        <v>1.53595195296747</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.670999276446317</v>
+        <v>1.433594068185887</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.355216360865392</v>
+        <v>1.342673835324926</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.489740226168704</v>
+        <v>1.331531674880947</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.615947928230947</v>
+        <v>1.385171671197137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.323671236895029</v>
+        <v>1.415888273331011</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.656824618522437</v>
+        <v>1.498795937456921</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.675598526928938</v>
+        <v>1.454752575098741</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.522087818610308</v>
+        <v>1.631060248974086</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.59879065678956</v>
+        <v>1.537087017901586</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.506760742765223</v>
+        <v>1.483374429717113</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.700529102129623</v>
+        <v>1.656476914205459</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.389230025280856</v>
+        <v>1.400202879794218</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.38746811266028</v>
+        <v>1.659485252514162</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.244287485033291</v>
+        <v>1.487770022756183</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.454684352718548</v>
+        <v>1.614389312106051</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.377632599938686</v>
+        <v>1.63980769269823</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.572771222896006</v>
+        <v>1.485183193466399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.61123221279697</v>
+        <v>1.416598890566048</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.390067527855802</v>
+        <v>1.357814698497741</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.204201795454934</v>
+        <v>1.36084587033337</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.616122886029904</v>
+        <v>1.289605783118003</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.562878408385711</v>
+        <v>1.35353956184875</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.292138258360387</v>
+        <v>1.52669353759032</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.602359875856236</v>
+        <v>1.383726320890889</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.540025923769442</v>
+        <v>1.501724834434859</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.683084571376182</v>
+        <v>1.253248867975982</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.501396077392492</v>
+        <v>1.701692258234099</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.437391891476857</v>
+        <v>1.446869206212637</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.455361664255561</v>
+        <v>1.567891676102768</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.622017660110598</v>
+        <v>1.436981012019813</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.501269098514177</v>
+        <v>1.465337677375748</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.72274889746533</v>
+        <v>1.356167708672626</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.319052521280387</v>
+        <v>1.743901345736747</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.395061377816968</v>
+        <v>1.239721489224392</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.503893798823296</v>
+        <v>1.369359947434419</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.542950479228211</v>
+        <v>1.454018718088762</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.556853618324745</v>
+        <v>1.471258906957647</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.398613774895055</v>
+        <v>1.648161117947287</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.319307844779525</v>
+        <v>1.441531392887221</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.433780678105049</v>
+        <v>1.506303191840039</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.480395788108261</v>
+        <v>1.365505731287568</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.554520703823381</v>
+        <v>1.431071145866341</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.408873994157223</v>
+        <v>1.792816882364069</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.522273898522508</v>
+        <v>1.551650528054076</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.55336319241288</v>
+        <v>1.474288800817917</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.243648558950847</v>
+        <v>1.497209917744643</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.377374106926113</v>
+        <v>1.401792182528613</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.351061032942383</v>
+        <v>1.440549600746485</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.230658331948779</v>
+        <v>1.52417289890666</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.454561357350449</v>
+        <v>1.431103199634119</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.486567762090949</v>
+        <v>1.498773735037248</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.583751458826174</v>
+        <v>1.39295704723056</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.714162068647939</v>
+        <v>1.317732378955186</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.53179762943515</v>
+        <v>1.45044141274953</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.338265742435744</v>
+        <v>1.868498388409166</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.554910583496778</v>
+        <v>1.274365255585687</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.447782160736486</v>
+        <v>1.459084944329259</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.517416750799377</v>
+        <v>1.37822759120316</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.489283268648934</v>
+        <v>1.520929551576635</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.527347641436204</v>
+        <v>1.551110067381013</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.416405023470201</v>
+        <v>1.598148722067532</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.539510211603217</v>
+        <v>1.442149184222755</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.583988361812203</v>
+        <v>1.547070979641488</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.29296614332404</v>
+        <v>1.718469764260175</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.407078549704197</v>
+        <v>1.299378428528105</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.502848665408853</v>
+        <v>1.30871243531245</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.41469810362274</v>
+        <v>1.216285573577454</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.38776254811787</v>
+        <v>1.570917834656133</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.43576848074043</v>
+        <v>1.542768977302403</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.456563122948142</v>
+        <v>1.353720225438943</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.776765202671503</v>
+        <v>1.503511248334394</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.520721828705323</v>
+        <v>1.191490394640544</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.806116289558864</v>
+        <v>1.436859332242809</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.420916807094108</v>
+        <v>1.293105621079542</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.35138815910939</v>
+        <v>1.395281446637695</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.412559512197437</v>
+        <v>1.378380035410802</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.264442920142149</v>
+        <v>1.610314843230722</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.578352765103504</v>
+        <v>1.720666606122653</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.606538180312498</v>
+        <v>1.390952405372457</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.521826955271644</v>
+        <v>1.7386451615241</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.410522586715197</v>
+        <v>1.459589779815544</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.487842543217138</v>
+        <v>1.345285585707364</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.494766565540713</v>
+        <v>1.562465609854158</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.467308987760409</v>
+        <v>1.447800979148753</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.651092758516734</v>
+        <v>1.602006359244077</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.546466318624557</v>
+        <v>1.46207795951208</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.490841492295259</v>
+        <v>1.640108438241639</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.232337135864898</v>
+        <v>1.263616469195829</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.571818596180443</v>
+        <v>1.467570313516334</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.453533783582156</v>
+        <v>1.312762346445846</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.488272999104659</v>
+        <v>1.506374810812974</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.513345986360563</v>
+        <v>1.359850196482782</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.396702131271858</v>
+        <v>1.544083529796546</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1.365849539822018</v>
+        <v>1.509196497075523</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.245008881467579</v>
+        <v>1.407142074589118</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.728426227395168</v>
+        <v>1.271310973604512</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.447076684230666</v>
+        <v>1.501821465350576</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.266471261481752</v>
+        <v>1.429655947818532</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.431664163791987</v>
+        <v>1.320318739327781</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.345979391205752</v>
+        <v>1.525603214461681</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.45677431904806</v>
+        <v>1.480180640214792</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.464274703158257</v>
+        <v>1.346743346599431</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.477384840928122</v>
+        <v>1.582790697868209</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.573503148537512</v>
+        <v>1.617773704924764</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.386047785024486</v>
+        <v>1.596646073914199</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.51497930209675</v>
+        <v>1.394784205728182</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.573315274654782</v>
+        <v>1.385466409179029</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.588008412394625</v>
+        <v>1.509860281046356</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.584148195987913</v>
+        <v>1.625439446595123</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.538730993523184</v>
+        <v>1.486042898100532</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.482079031238427</v>
+        <v>1.518752240730752</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.539601173192189</v>
+        <v>1.246913553392707</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.441276922006382</v>
+        <v>1.595026700797231</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.535046053698531</v>
+        <v>1.507790341084071</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.468170054835182</v>
+        <v>1.533038884029457</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.387935354598233</v>
+        <v>1.695050262518505</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.590368473934614</v>
+        <v>1.451920270099258</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.163878463387097</v>
+        <v>1.365293053885473</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.471028514122621</v>
+        <v>1.492786015457282</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.494482472836883</v>
+        <v>1.628657548391964</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.434742671142374</v>
+        <v>1.556333640039969</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.323407643514922</v>
+        <v>1.657102835737793</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.502016874767923</v>
+        <v>1.058561689764092</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.339444167126316</v>
+        <v>1.595597726342332</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.627898454203736</v>
+        <v>1.51619874381379</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.397748887133026</v>
+        <v>1.399620833338184</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.160349219084739</v>
+        <v>1.268902655196871</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.553395892370357</v>
+        <v>1.365028338051566</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.668614227647617</v>
+        <v>1.372007374932569</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.674562101636037</v>
+        <v>1.74447956643048</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.74044111597529</v>
+        <v>1.626595670135138</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.387390438818624</v>
+        <v>1.62601873503921</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.656813842494297</v>
+        <v>1.56958363484855</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.513180001192092</v>
+        <v>1.573995958252205</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.665710293504684</v>
+        <v>1.803080841247193</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.48545032108448</v>
+        <v>1.543795359540225</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.415474767829796</v>
+        <v>1.558590836886673</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.260929775589887</v>
+        <v>1.869494025562435</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.502123768144663</v>
+        <v>1.37683953575315</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.516813287769102</v>
+        <v>1.369851935858896</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.623774649640894</v>
+        <v>1.139426290180359</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.578316072981021</v>
+        <v>1.286731456725789</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.136298149308727</v>
+        <v>1.394550792559291</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.50664376942736</v>
+        <v>1.717255335163785</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.554251278680894</v>
+        <v>1.374932288883556</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.61059556522944</v>
+        <v>1.185996479804853</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.879077879563157</v>
+        <v>1.420133883639549</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.437628316811874</v>
+        <v>1.154686393274962</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.311591355570688</v>
+        <v>1.335304775876427</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.701000374644843</v>
+        <v>1.40717941870823</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.491798865096565</v>
+        <v>1.703684014252436</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.259468847512433</v>
+        <v>1.798563156591149</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.530515841725847</v>
+        <v>1.348346035215337</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.34687706417267</v>
+        <v>1.493264913008761</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.45753257237335</v>
+        <v>1.573563512686171</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.337215860933611</v>
+        <v>1.253549901813172</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.662793333802717</v>
+        <v>1.241996939761991</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.744420809403149</v>
+        <v>1.743384801906423</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.244202932248485</v>
+        <v>1.575529509877188</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.539341495208063</v>
+        <v>1.482521646726798</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.451937150515018</v>
+        <v>1.539594463577987</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.540988177994508</v>
+        <v>1.39980826238631</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.704451114585562</v>
+        <v>1.413310298748142</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.47606039056197</v>
+        <v>1.472964421210574</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.670757988973247</v>
+        <v>1.673465175740523</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.455897606276311</v>
+        <v>1.512638368298044</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.452573420906512</v>
+        <v>1.430392220198391</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.591214703958801</v>
+        <v>1.304734252061963</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.484081819973927</v>
+        <v>1.630753715271874</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.496713526492854</v>
+        <v>1.341505777245209</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.510397844522653</v>
+        <v>1.2484520663285</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.190432341488965</v>
+        <v>1.5421197218003</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.615513321857778</v>
+        <v>1.420423210899269</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.424217957111525</v>
+        <v>1.094266277737941</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.532113134135024</v>
+        <v>1.446544369008973</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.588706698436974</v>
+        <v>1.657942915013114</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.921791240136884</v>
+        <v>1.386371889254405</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.370335130935977</v>
+        <v>1.329792707937009</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.380730158307364</v>
+        <v>1.420349129555416</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.467259122205492</v>
+        <v>1.513692520907932</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.626223329936498</v>
+        <v>1.650208223759661</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.323944083966302</v>
+        <v>1.730163989221485</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.545797610828489</v>
+        <v>1.320394972634628</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.254055870149433</v>
+        <v>1.417964020256244</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.828704149310512</v>
+        <v>1.410341611272145</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.681083777904149</v>
+        <v>1.561450956763242</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.138270764200839</v>
+        <v>1.48305895264499</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>1.493354635745255</v>
+        <v>1.415599723966969</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.65018572189403</v>
+        <v>1.325513172088578</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.157924226430549</v>
+        <v>1.473345130014156</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.654429862911629</v>
+        <v>1.330795697035304</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.468198511022449</v>
+        <v>1.582772715355512</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.438261713172794</v>
+        <v>1.362672242613464</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.393091018123396</v>
+        <v>1.409844938965935</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.47960382418001</v>
+        <v>1.759165955471264</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.459262449192168</v>
+        <v>1.716008164847713</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.515502639398741</v>
+        <v>1.732252365252081</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.320311501350237</v>
+        <v>1.683634353936834</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.247111357085008</v>
+        <v>1.371026924148394</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.56151632481599</v>
+        <v>1.669672610772676</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.358355478929367</v>
+        <v>1.595348131205827</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.698994725338641</v>
+        <v>1.459556663615956</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.634141345791297</v>
+        <v>1.569235244832195</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.490845943346352</v>
+        <v>1.399655091214496</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.464733141717445</v>
+        <v>1.545976739027875</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.230736200160654</v>
+        <v>1.525994686424073</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.347748811080825</v>
+        <v>1.484548193184072</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.375441023409452</v>
+        <v>1.733723757519114</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.379966090698458</v>
+        <v>1.411706140886418</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.459075990980624</v>
+        <v>1.625856979173655</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.366793119401518</v>
+        <v>1.555057654275966</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.577950804911262</v>
+        <v>1.61423109626593</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.640826075264588</v>
+        <v>1.670329929649121</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.353287946461059</v>
+        <v>1.440959224710314</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.316279887758357</v>
+        <v>1.45094900611466</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.333436831646006</v>
+        <v>1.433895566934697</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.508632978994111</v>
+        <v>1.573176581805929</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.514737120935591</v>
+        <v>1.533271117217663</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.462489949781753</v>
+        <v>1.428678472079504</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.469039907909418</v>
+        <v>1.609039158953582</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.559682353415524</v>
+        <v>1.506660483380053</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.494161266241106</v>
+        <v>1.449904272094992</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.379874261652756</v>
+        <v>1.57875242343312</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.402895791521791</v>
+        <v>1.582928185913471</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.524346092694075</v>
+        <v>1.474197832741268</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.328190920405036</v>
+        <v>1.588134483707679</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.410558453425188</v>
+        <v>1.624506433296496</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.464069063938002</v>
+        <v>1.773723271156827</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.574272443985006</v>
+        <v>1.523172738561428</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.462735055042944</v>
+        <v>1.499068412191122</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.378843560381671</v>
+        <v>1.522711994614662</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.51722366431161</v>
+        <v>1.484127801882536</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.568258558247863</v>
+        <v>1.548887805225813</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.614968094153992</v>
+        <v>1.377192193564353</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.649643210876867</v>
+        <v>1.635511918231999</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.55390585823308</v>
+        <v>1.64348060165748</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.332343877710422</v>
+        <v>1.582189698310987</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.503449380955217</v>
+        <v>1.368174722447127</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.531485507746462</v>
+        <v>1.783619839296501</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>flower/flower048.jpg</t>
   </si>
   <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
     <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.636112340291536</v>
+        <v>1.322396690638412</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.394541100791236</v>
+        <v>1.56846176556256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.610335777016201</v>
+        <v>1.204834064983115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.630122418544637</v>
+        <v>1.468133011204914</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.643493433899653</v>
+        <v>1.516163571362473</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.698715718194563</v>
+        <v>1.498948661338202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.626886252220785</v>
+        <v>1.575275422818469</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.547450906302358</v>
+        <v>1.366764120355207</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.488094462354679</v>
+        <v>1.398495648915194</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.575171145586287</v>
+        <v>1.47347740721159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.358514414066055</v>
+        <v>1.610768894813981</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.56791190256591</v>
+        <v>1.606636180994904</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.683443286678285</v>
+        <v>1.423078420993682</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.240807762022742</v>
+        <v>1.576643870006693</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.270103252045834</v>
+        <v>1.45052935239749</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.587873825188917</v>
+        <v>1.282269290726207</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.53595195296747</v>
+        <v>1.372076030493723</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.433594068185887</v>
+        <v>1.587669525262084</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.342673835324926</v>
+        <v>1.395676681160303</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.331531674880947</v>
+        <v>1.621131249611189</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.385171671197137</v>
+        <v>1.676836471130333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.415888273331011</v>
+        <v>1.425613565767588</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.498795937456921</v>
+        <v>1.485262454974195</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.454752575098741</v>
+        <v>1.524072747716248</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.631060248974086</v>
+        <v>1.439534465794753</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.537087017901586</v>
+        <v>1.54721440497231</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.483374429717113</v>
+        <v>1.354647346880679</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1.656476914205459</v>
+        <v>1.498818332777236</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.400202879794218</v>
+        <v>1.298388704119398</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.659485252514162</v>
+        <v>1.68369002469751</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.487770022756183</v>
+        <v>1.411742751749256</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.614389312106051</v>
+        <v>1.499114817918579</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.63980769269823</v>
+        <v>1.553578345182048</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.485183193466399</v>
+        <v>1.618821275932776</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.416598890566048</v>
+        <v>1.642293590570184</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1.357814698497741</v>
+        <v>1.467948156440713</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.36084587033337</v>
+        <v>1.255745404978782</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.289605783118003</v>
+        <v>1.644796597172038</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.35353956184875</v>
+        <v>1.65583286119953</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.52669353759032</v>
+        <v>1.674198947110397</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.383726320890889</v>
+        <v>1.422625128211412</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.501724834434859</v>
+        <v>1.565085808599818</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.253248867975982</v>
+        <v>1.676244039046351</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.701692258234099</v>
+        <v>1.752123552668645</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.446869206212637</v>
+        <v>1.492080783055847</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.567891676102768</v>
+        <v>1.73577105444251</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.436981012019813</v>
+        <v>1.288022018833716</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.465337677375748</v>
+        <v>1.675356634999874</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.356167708672626</v>
+        <v>1.632142688693727</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.743901345736747</v>
+        <v>1.711113415793756</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.239721489224392</v>
+        <v>1.163256121974265</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.369359947434419</v>
+        <v>1.681464169582025</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.454018718088762</v>
+        <v>1.67914899390315</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.471258906957647</v>
+        <v>1.378043906648786</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.648161117947287</v>
+        <v>1.589552382264938</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.441531392887221</v>
+        <v>1.40481417886209</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.506303191840039</v>
+        <v>1.327827293530582</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.365505731287568</v>
+        <v>1.439138319604041</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.431071145866341</v>
+        <v>1.560735040580845</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.792816882364069</v>
+        <v>1.455506447469984</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.551650528054076</v>
+        <v>1.208068353754934</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.474288800817917</v>
+        <v>1.633867990569994</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.497209917744643</v>
+        <v>1.381424627925129</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.401792182528613</v>
+        <v>1.404877959254026</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.440549600746485</v>
+        <v>1.51114337911813</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.52417289890666</v>
+        <v>1.294524855546862</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.431103199634119</v>
+        <v>1.424278553413758</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.498773735037248</v>
+        <v>1.435081098514966</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.39295704723056</v>
+        <v>1.448851293711594</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.317732378955186</v>
+        <v>1.552968403939215</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.45044141274953</v>
+        <v>1.787333958435706</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.868498388409166</v>
+        <v>1.486849791708223</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.274365255585687</v>
+        <v>1.433628759347746</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.459084944329259</v>
+        <v>1.421733529535475</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.37822759120316</v>
+        <v>1.513075240354775</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.520929551576635</v>
+        <v>1.276590356357981</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1.551110067381013</v>
+        <v>1.760450964877645</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.598148722067532</v>
+        <v>1.38969546402427</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.442149184222755</v>
+        <v>1.510291501792718</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.547070979641488</v>
+        <v>1.450607351354374</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.718469764260175</v>
+        <v>1.775986309930586</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.299378428528105</v>
+        <v>1.416985522540981</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.30871243531245</v>
+        <v>1.646524589958317</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.216285573577454</v>
+        <v>1.292462561945436</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.570917834656133</v>
+        <v>1.611172637651429</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.542768977302403</v>
+        <v>1.558960343798694</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.353720225438943</v>
+        <v>1.267312013644958</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.503511248334394</v>
+        <v>1.605075703061257</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.191490394640544</v>
+        <v>1.59088976058245</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.436859332242809</v>
+        <v>1.482950436028479</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.293105621079542</v>
+        <v>1.454653951298705</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.395281446637695</v>
+        <v>1.53774686054589</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.378380035410802</v>
+        <v>1.443314047074809</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.610314843230722</v>
+        <v>1.430533887744589</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.720666606122653</v>
+        <v>1.503310118019063</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.390952405372457</v>
+        <v>1.51204695133605</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.7386451615241</v>
+        <v>1.449124708941126</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.459589779815544</v>
+        <v>1.448061271890377</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.345285585707364</v>
+        <v>1.351678651534709</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.562465609854158</v>
+        <v>1.527014310993436</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.447800979148753</v>
+        <v>1.405864788941498</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.602006359244077</v>
+        <v>1.727644616872782</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.46207795951208</v>
+        <v>1.595646002502724</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.640108438241639</v>
+        <v>1.793374806225212</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.263616469195829</v>
+        <v>1.526263284008091</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.467570313516334</v>
+        <v>1.572924737546705</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.312762346445846</v>
+        <v>1.702913743333501</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.506374810812974</v>
+        <v>1.975234980924607</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.359850196482782</v>
+        <v>1.269361904076823</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.544083529796546</v>
+        <v>1.317029344066365</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.509196497075523</v>
+        <v>1.388912983352409</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.407142074589118</v>
+        <v>1.410641074885623</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.271310973604512</v>
+        <v>1.479466373088796</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.501821465350576</v>
+        <v>1.240057214521419</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.429655947818532</v>
+        <v>1.344656379638335</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.320318739327781</v>
+        <v>1.643102399304161</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.525603214461681</v>
+        <v>1.407001159470063</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.480180640214792</v>
+        <v>1.592059906596254</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.346743346599431</v>
+        <v>1.803596191205799</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.582790697868209</v>
+        <v>1.728551392035783</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.617773704924764</v>
+        <v>1.303689686605943</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.596646073914199</v>
+        <v>1.421321078939591</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.394784205728182</v>
+        <v>1.534662209466722</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.385466409179029</v>
+        <v>1.340056835615291</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.509860281046356</v>
+        <v>1.358826048020631</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.625439446595123</v>
+        <v>1.629869762684414</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.486042898100532</v>
+        <v>1.38320445013913</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.518752240730752</v>
+        <v>1.518350335625231</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.246913553392707</v>
+        <v>1.436510396412258</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.595026700797231</v>
+        <v>1.251721392285723</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.507790341084071</v>
+        <v>1.265016177100729</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.533038884029457</v>
+        <v>1.403823750221828</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.695050262518505</v>
+        <v>1.691472955189233</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.451920270099258</v>
+        <v>1.490412701815304</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.365293053885473</v>
+        <v>1.510434574834583</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.492786015457282</v>
+        <v>1.423774529428552</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.628657548391964</v>
+        <v>1.419823903226094</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.556333640039969</v>
+        <v>1.34720157863075</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1.657102835737793</v>
+        <v>1.766020412920982</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.058561689764092</v>
+        <v>1.486851479862946</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.595597726342332</v>
+        <v>1.564322893659107</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.51619874381379</v>
+        <v>1.422697158844676</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.399620833338184</v>
+        <v>1.396321424258618</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.268902655196871</v>
+        <v>1.250991242065684</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.365028338051566</v>
+        <v>1.605485804808298</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.372007374932569</v>
+        <v>1.522908906780781</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.74447956643048</v>
+        <v>1.583237289395497</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.626595670135138</v>
+        <v>1.709081083379124</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.62601873503921</v>
+        <v>1.248726427139055</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.56958363484855</v>
+        <v>1.435861009972092</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.573995958252205</v>
+        <v>1.554397150898378</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.803080841247193</v>
+        <v>1.319643028367527</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.543795359540225</v>
+        <v>1.312067749288957</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.558590836886673</v>
+        <v>1.263434897651518</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.869494025562435</v>
+        <v>1.490220834114761</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.37683953575315</v>
+        <v>1.432536127227194</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.369851935858896</v>
+        <v>1.541619752297718</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.139426290180359</v>
+        <v>1.307083048417873</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.286731456725789</v>
+        <v>1.443345789954786</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.394550792559291</v>
+        <v>1.361114642870315</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.717255335163785</v>
+        <v>1.800568119903647</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.374932288883556</v>
+        <v>1.546746527985976</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.185996479804853</v>
+        <v>1.873685460024411</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.420133883639549</v>
+        <v>1.378274615521726</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.154686393274962</v>
+        <v>1.154965263916298</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.335304775876427</v>
+        <v>1.627481153621998</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.40717941870823</v>
+        <v>1.550980631518174</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.703684014252436</v>
+        <v>1.37974742387293</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.798563156591149</v>
+        <v>1.533355484464502</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.348346035215337</v>
+        <v>1.557819727976583</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.493264913008761</v>
+        <v>1.487139105200528</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.573563512686171</v>
+        <v>1.572410947454875</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.253549901813172</v>
+        <v>1.486108397420776</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.241996939761991</v>
+        <v>1.436381874732989</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.743384801906423</v>
+        <v>1.53338802267082</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.575529509877188</v>
+        <v>1.522875339218747</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.482521646726798</v>
+        <v>1.38263656014768</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.539594463577987</v>
+        <v>1.313532577386187</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.39980826238631</v>
+        <v>1.579449948551994</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.413310298748142</v>
+        <v>1.763536792003101</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.472964421210574</v>
+        <v>1.711530956736153</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.673465175740523</v>
+        <v>1.639217812534584</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.512638368298044</v>
+        <v>1.3959850657027</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.430392220198391</v>
+        <v>1.339502760763467</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.304734252061963</v>
+        <v>1.275326963343674</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.630753715271874</v>
+        <v>1.633126651480069</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.341505777245209</v>
+        <v>1.421854567846937</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.2484520663285</v>
+        <v>1.475234999923524</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.5421197218003</v>
+        <v>1.434610654119179</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.420423210899269</v>
+        <v>1.34979807965422</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.094266277737941</v>
+        <v>1.471091698097737</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.446544369008973</v>
+        <v>1.483897890914931</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.657942915013114</v>
+        <v>1.560545096176798</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.386371889254405</v>
+        <v>1.701665378392188</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.329792707937009</v>
+        <v>1.364040268542526</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.420349129555416</v>
+        <v>1.383263239068426</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.513692520907932</v>
+        <v>1.499468428007645</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.650208223759661</v>
+        <v>1.663525744551579</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.730163989221485</v>
+        <v>1.517312051591409</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.320394972634628</v>
+        <v>1.203436597701885</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.417964020256244</v>
+        <v>1.537895105638553</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.410341611272145</v>
+        <v>1.5681481870188</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.561450956763242</v>
+        <v>1.184674690615693</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.48305895264499</v>
+        <v>1.362118438947914</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.415599723966969</v>
+        <v>1.418371496088189</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.325513172088578</v>
+        <v>1.728209223190278</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.473345130014156</v>
+        <v>1.408510427607471</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.330795697035304</v>
+        <v>1.276088357586337</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.582772715355512</v>
+        <v>1.496986591921614</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.362672242613464</v>
+        <v>1.312758185312747</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.409844938965935</v>
+        <v>1.777315341098732</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.759165955471264</v>
+        <v>1.788942072098654</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.716008164847713</v>
+        <v>1.371939927478832</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.732252365252081</v>
+        <v>1.759603353905489</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.683634353936834</v>
+        <v>1.292528116032187</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.371026924148394</v>
+        <v>1.68247434281922</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.669672610772676</v>
+        <v>1.392993812046158</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.595348131205827</v>
+        <v>1.690353343059569</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.459556663615956</v>
+        <v>1.280679781866423</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.569235244832195</v>
+        <v>1.354623587791541</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.399655091214496</v>
+        <v>1.332361949008923</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.545976739027875</v>
+        <v>1.417752141353128</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.525994686424073</v>
+        <v>1.578045605388195</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.484548193184072</v>
+        <v>1.441003396508923</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.733723757519114</v>
+        <v>1.412017213004239</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.411706140886418</v>
+        <v>1.282817107820438</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.625856979173655</v>
+        <v>1.588697562836824</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.555057654275966</v>
+        <v>1.436365889053376</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.61423109626593</v>
+        <v>1.460225524424029</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.670329929649121</v>
+        <v>1.441993348476952</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.440959224710314</v>
+        <v>1.554601548605959</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.45094900611466</v>
+        <v>1.755985765930809</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.433895566934697</v>
+        <v>1.497179192345248</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.573176581805929</v>
+        <v>1.568767290286543</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.533271117217663</v>
+        <v>1.599743097610284</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.428678472079504</v>
+        <v>1.527154447991084</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.609039158953582</v>
+        <v>1.173124221076128</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.506660483380053</v>
+        <v>1.494863432812861</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.449904272094992</v>
+        <v>1.587092577210119</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.57875242343312</v>
+        <v>1.576639506876313</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.582928185913471</v>
+        <v>1.55191988276762</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.474197832741268</v>
+        <v>1.450352858237166</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.588134483707679</v>
+        <v>1.510024217487535</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.624506433296496</v>
+        <v>1.507396317370482</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.773723271156827</v>
+        <v>1.732568005910784</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.523172738561428</v>
+        <v>1.477603110751674</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.499068412191122</v>
+        <v>1.489066740557196</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.522711994614662</v>
+        <v>1.674787137460377</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.484127801882536</v>
+        <v>1.540549760629207</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.548887805225813</v>
+        <v>1.570125598105983</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.377192193564353</v>
+        <v>1.851128171795548</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.635511918231999</v>
+        <v>1.250917470724955</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.64348060165748</v>
+        <v>1.453809186022252</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.582189698310987</v>
+        <v>1.276145628194755</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.368174722447127</v>
+        <v>1.364059952871579</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.783619839296501</v>
+        <v>1.395255294073511</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,481 +31,583 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>flower/flower080.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
@@ -517,298 +619,196 @@
     <t>house/house074.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
   </si>
   <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>face/face083.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.322396690638412</v>
+        <v>1.511665386773564</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.56846176556256</v>
+        <v>1.643088474625088</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.204834064983115</v>
+        <v>1.39464127968384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.468133011204914</v>
+        <v>1.513194672538835</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.516163571362473</v>
+        <v>1.70512240074286</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.498948661338202</v>
+        <v>1.53307452132206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.575275422818469</v>
+        <v>1.333322808340767</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.366764120355207</v>
+        <v>1.411633461067984</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.398495648915194</v>
+        <v>1.501546123481885</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.47347740721159</v>
+        <v>1.629269360964547</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.610768894813981</v>
+        <v>1.160842104651845</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.606636180994904</v>
+        <v>1.718160847434957</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.423078420993682</v>
+        <v>1.378172915840227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.576643870006693</v>
+        <v>1.45631468131278</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.45052935239749</v>
+        <v>1.56012904882655</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.282269290726207</v>
+        <v>1.532018203822188</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.372076030493723</v>
+        <v>1.530793486537081</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.587669525262084</v>
+        <v>1.445533795916274</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.395676681160303</v>
+        <v>1.703189986408117</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.621131249611189</v>
+        <v>1.552970842405714</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.676836471130333</v>
+        <v>1.405646011929601</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.425613565767588</v>
+        <v>1.357287071260457</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.485262454974195</v>
+        <v>1.484768401508026</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.524072747716248</v>
+        <v>1.576104636968005</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.439534465794753</v>
+        <v>1.737387554812006</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.54721440497231</v>
+        <v>1.640123708649622</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.354647346880679</v>
+        <v>1.607284968658703</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.498818332777236</v>
+        <v>1.168060848664772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.298388704119398</v>
+        <v>1.464749964116565</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.68369002469751</v>
+        <v>1.550209971065897</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.411742751749256</v>
+        <v>1.643254173380103</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.499114817918579</v>
+        <v>1.524526886174408</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.553578345182048</v>
+        <v>1.513634361547642</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.618821275932776</v>
+        <v>1.23989409660534</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.642293590570184</v>
+        <v>1.389059191488183</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.467948156440713</v>
+        <v>1.50420676774976</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.255745404978782</v>
+        <v>1.563930586812307</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.644796597172038</v>
+        <v>1.322447251308776</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.65583286119953</v>
+        <v>1.565808370561841</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.674198947110397</v>
+        <v>1.491548713629434</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.422625128211412</v>
+        <v>1.417605325375609</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.565085808599818</v>
+        <v>1.378195386043564</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.676244039046351</v>
+        <v>1.32024698487061</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.752123552668645</v>
+        <v>1.463943978439846</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.492080783055847</v>
+        <v>1.463876644340016</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.73577105444251</v>
+        <v>1.66418918134562</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.288022018833716</v>
+        <v>1.433670653533338</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.675356634999874</v>
+        <v>1.686219825420345</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.632142688693727</v>
+        <v>1.26837393775617</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.711113415793756</v>
+        <v>1.500644089794092</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.163256121974265</v>
+        <v>1.444446431815348</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.681464169582025</v>
+        <v>1.647494009746605</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.67914899390315</v>
+        <v>1.432467422694241</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.378043906648786</v>
+        <v>1.42547063947532</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.589552382264938</v>
+        <v>1.505248095428792</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.40481417886209</v>
+        <v>1.228394815505307</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.327827293530582</v>
+        <v>1.485633525726504</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.439138319604041</v>
+        <v>1.461494558687193</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.560735040580845</v>
+        <v>1.360665389013657</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.455506447469984</v>
+        <v>1.866950196959796</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.208068353754934</v>
+        <v>1.343373603230389</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.633867990569994</v>
+        <v>1.223777448531137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.381424627925129</v>
+        <v>1.504125600024045</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.404877959254026</v>
+        <v>1.700282219651546</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.51114337911813</v>
+        <v>1.416381927006527</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.294524855546862</v>
+        <v>1.399647734762454</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1.424278553413758</v>
+        <v>1.480249270831356</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.435081098514966</v>
+        <v>1.56386140479027</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.448851293711594</v>
+        <v>1.513128876709518</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.552968403939215</v>
+        <v>1.450749864993756</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.787333958435706</v>
+        <v>1.422291856272007</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.486849791708223</v>
+        <v>1.394753022717104</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.433628759347746</v>
+        <v>1.362209452411764</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.421733529535475</v>
+        <v>1.675011943274106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.513075240354775</v>
+        <v>1.34560631422381</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.276590356357981</v>
+        <v>1.370900277128923</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.760450964877645</v>
+        <v>1.350609457299583</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.38969546402427</v>
+        <v>1.562977232801179</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.510291501792718</v>
+        <v>1.410968954884216</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.450607351354374</v>
+        <v>1.35317895964489</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.775986309930586</v>
+        <v>1.363821215002259</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.416985522540981</v>
+        <v>1.719612475495874</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.646524589958317</v>
+        <v>1.573883775903091</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.292462561945436</v>
+        <v>1.564125627360178</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.611172637651429</v>
+        <v>1.62460157249476</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.558960343798694</v>
+        <v>1.540695601383561</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.267312013644958</v>
+        <v>1.572784888382951</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.605075703061257</v>
+        <v>1.476924218358871</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.59088976058245</v>
+        <v>1.316076174476734</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.482950436028479</v>
+        <v>1.438751871864372</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.454653951298705</v>
+        <v>1.41573512174347</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.53774686054589</v>
+        <v>1.646449088592529</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.443314047074809</v>
+        <v>1.423099021326694</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.430533887744589</v>
+        <v>1.136473838228603</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.503310118019063</v>
+        <v>1.708537579616382</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.51204695133605</v>
+        <v>1.467288209803984</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.449124708941126</v>
+        <v>1.483360939110944</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.448061271890377</v>
+        <v>1.642328794507901</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.351678651534709</v>
+        <v>1.18220386495051</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.527014310993436</v>
+        <v>1.617960233586714</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.405864788941498</v>
+        <v>1.727999715324106</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.727644616872782</v>
+        <v>1.361332545033013</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.595646002502724</v>
+        <v>1.393948090941806</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.793374806225212</v>
+        <v>1.307312883696585</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.526263284008091</v>
+        <v>1.318048041104762</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.572924737546705</v>
+        <v>1.569033873684997</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.702913743333501</v>
+        <v>1.619329633363122</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.975234980924607</v>
+        <v>1.501728746717157</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.269361904076823</v>
+        <v>1.72502004807599</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.317029344066365</v>
+        <v>1.498886088090716</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.388912983352409</v>
+        <v>1.56141103057471</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.410641074885623</v>
+        <v>1.55982577030485</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.479466373088796</v>
+        <v>1.241486482539306</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.240057214521419</v>
+        <v>1.460891598117231</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.344656379638335</v>
+        <v>1.394838616414669</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.643102399304161</v>
+        <v>1.500160840799975</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.407001159470063</v>
+        <v>1.403382071843447</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.592059906596254</v>
+        <v>1.544103935387189</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.803596191205799</v>
+        <v>1.4349236599111</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.728551392035783</v>
+        <v>1.347920119082384</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.303689686605943</v>
+        <v>1.457092854691554</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.421321078939591</v>
+        <v>1.285982672348737</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.534662209466722</v>
+        <v>1.541522457306287</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.340056835615291</v>
+        <v>1.41051599999298</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.358826048020631</v>
+        <v>1.336679253950583</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.629869762684414</v>
+        <v>1.604284838353902</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.38320445013913</v>
+        <v>1.428365729032247</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.518350335625231</v>
+        <v>1.5638134811355</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.436510396412258</v>
+        <v>1.404288079593732</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.251721392285723</v>
+        <v>1.410750192709229</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.265016177100729</v>
+        <v>1.711416548328432</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.403823750221828</v>
+        <v>1.421852147037577</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.691472955189233</v>
+        <v>1.503414183691274</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.490412701815304</v>
+        <v>1.613355568538525</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.510434574834583</v>
+        <v>1.519437172636161</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.423774529428552</v>
+        <v>1.550563644274229</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.419823903226094</v>
+        <v>1.531201880080317</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.34720157863075</v>
+        <v>1.48836005155013</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.766020412920982</v>
+        <v>1.547693658747256</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.486851479862946</v>
+        <v>1.335295489249445</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.564322893659107</v>
+        <v>1.206242893566122</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.422697158844676</v>
+        <v>1.370631657780716</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.396321424258618</v>
+        <v>1.485261595687591</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.250991242065684</v>
+        <v>1.711710185500847</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.605485804808298</v>
+        <v>1.452509567923578</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.522908906780781</v>
+        <v>1.428611071892622</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.583237289395497</v>
+        <v>1.568124959577645</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.709081083379124</v>
+        <v>1.532849638149073</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.248726427139055</v>
+        <v>1.460240303788146</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.435861009972092</v>
+        <v>1.555659822746846</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.554397150898378</v>
+        <v>1.448852828328028</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.319643028367527</v>
+        <v>1.635246589154973</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.312067749288957</v>
+        <v>1.429730410387842</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.263434897651518</v>
+        <v>1.145706152879576</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.490220834114761</v>
+        <v>1.71934976250676</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.432536127227194</v>
+        <v>1.463147305921213</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.541619752297718</v>
+        <v>1.361296129399269</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.307083048417873</v>
+        <v>1.664657975774008</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.443345789954786</v>
+        <v>1.531725602129934</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.361114642870315</v>
+        <v>1.762601081211543</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.800568119903647</v>
+        <v>1.630281500828007</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.546746527985976</v>
+        <v>1.467669648156537</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.873685460024411</v>
+        <v>1.525507975231845</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.378274615521726</v>
+        <v>1.630303408584549</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.154965263916298</v>
+        <v>1.454195566641812</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.627481153621998</v>
+        <v>1.541227083720209</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.550980631518174</v>
+        <v>1.192426076979164</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.37974742387293</v>
+        <v>1.485254777810238</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.533355484464502</v>
+        <v>1.612197557683778</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.557819727976583</v>
+        <v>1.377393146129278</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.487139105200528</v>
+        <v>1.732017894048774</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.572410947454875</v>
+        <v>1.480446832411247</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.486108397420776</v>
+        <v>1.527496863193375</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.436381874732989</v>
+        <v>1.330819540296969</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.53338802267082</v>
+        <v>1.472713960273748</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.522875339218747</v>
+        <v>1.395669105326026</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.38263656014768</v>
+        <v>1.506126786946139</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.313532577386187</v>
+        <v>1.539579259764069</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.579449948551994</v>
+        <v>1.374187971370299</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.763536792003101</v>
+        <v>1.608564118678322</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.711530956736153</v>
+        <v>1.587352034481884</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.639217812534584</v>
+        <v>1.38199132881028</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.3959850657027</v>
+        <v>1.624542971948029</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.339502760763467</v>
+        <v>1.472778084495122</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.275326963343674</v>
+        <v>1.835168448855906</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.633126651480069</v>
+        <v>1.590071811108338</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.421854567846937</v>
+        <v>1.738255197932681</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.475234999923524</v>
+        <v>1.423304038797941</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.434610654119179</v>
+        <v>1.515522949659507</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.34979807965422</v>
+        <v>1.603720032275888</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.471091698097737</v>
+        <v>1.545546115741678</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.483897890914931</v>
+        <v>1.514038288215313</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.560545096176798</v>
+        <v>1.420957657944935</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.701665378392188</v>
+        <v>1.630263741102377</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.364040268542526</v>
+        <v>1.484238268150044</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.383263239068426</v>
+        <v>1.619439454715973</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.499468428007645</v>
+        <v>1.733768590724225</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.663525744551579</v>
+        <v>1.276515036859036</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.517312051591409</v>
+        <v>1.34076344113233</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.203436597701885</v>
+        <v>1.473496140576505</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.537895105638553</v>
+        <v>1.499014945828529</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.5681481870188</v>
+        <v>1.786295016582748</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.184674690615693</v>
+        <v>1.642169693375664</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.362118438947914</v>
+        <v>1.293900924438964</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.418371496088189</v>
+        <v>1.661345692749259</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.728209223190278</v>
+        <v>1.364866270983835</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.408510427607471</v>
+        <v>1.40648416228231</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.276088357586337</v>
+        <v>1.363848019215648</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.496986591921614</v>
+        <v>1.300637816527425</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.312758185312747</v>
+        <v>1.558739869055935</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.777315341098732</v>
+        <v>1.427955302197074</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.788942072098654</v>
+        <v>1.611594398604463</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.371939927478832</v>
+        <v>1.471990677512869</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.759603353905489</v>
+        <v>1.462291227209404</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.292528116032187</v>
+        <v>1.554578709095074</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.68247434281922</v>
+        <v>1.5240224715158</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.392993812046158</v>
+        <v>1.465056460626214</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.690353343059569</v>
+        <v>1.380027182692065</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.280679781866423</v>
+        <v>1.417978398047275</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.354623587791541</v>
+        <v>1.366792700270814</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.332361949008923</v>
+        <v>1.217100810993151</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1.417752141353128</v>
+        <v>1.680047875136432</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.578045605388195</v>
+        <v>1.268736765190483</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.441003396508923</v>
+        <v>1.598480877144638</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.412017213004239</v>
+        <v>1.533136368254985</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.282817107820438</v>
+        <v>1.471868504202277</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.588697562836824</v>
+        <v>1.2957788326687</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.436365889053376</v>
+        <v>1.613955474069705</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.460225524424029</v>
+        <v>1.54119711213299</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.441993348476952</v>
+        <v>1.192816826185491</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.554601548605959</v>
+        <v>1.555642641166703</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.755985765930809</v>
+        <v>1.702040115140928</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.497179192345248</v>
+        <v>1.389380909312988</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.568767290286543</v>
+        <v>1.584793227924376</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.599743097610284</v>
+        <v>1.418140387045131</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.527154447991084</v>
+        <v>1.534181193662581</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.173124221076128</v>
+        <v>1.617146972870331</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.494863432812861</v>
+        <v>1.565225235735004</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.587092577210119</v>
+        <v>1.612124806288071</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.576639506876313</v>
+        <v>1.314995916960608</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.55191988276762</v>
+        <v>1.4868126863159</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.450352858237166</v>
+        <v>1.655941982147307</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.510024217487535</v>
+        <v>1.441468102834638</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.507396317370482</v>
+        <v>1.613279939630578</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.732568005910784</v>
+        <v>1.493852560081195</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.477603110751674</v>
+        <v>1.490604446736013</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.489066740557196</v>
+        <v>1.459093604778585</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.674787137460377</v>
+        <v>1.341568618763635</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.540549760629207</v>
+        <v>1.49262861472127</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.570125598105983</v>
+        <v>1.558141809586766</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.851128171795548</v>
+        <v>1.337326785865808</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.250917470724955</v>
+        <v>1.749891351383795</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.453809186022252</v>
+        <v>1.424205309934523</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.276145628194755</v>
+        <v>1.612074699624499</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.364059952871579</v>
+        <v>1.394399168640539</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.395255294073511</v>
+        <v>1.654271181815805</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
   </si>
   <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
+    <t>dog/dog040.jpg</t>
   </si>
   <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
     <t>face/face070.jpg</t>
   </si>
   <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
+    <t>flower/flower092.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.511665386773564</v>
+        <v>1.405078258607972</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.643088474625088</v>
+        <v>1.333593422039181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.39464127968384</v>
+        <v>1.30744374381369</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.513194672538835</v>
+        <v>1.343771174036429</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.70512240074286</v>
+        <v>1.720871450368674</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.53307452132206</v>
+        <v>1.571629594769871</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.333322808340767</v>
+        <v>1.352926143279818</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.411633461067984</v>
+        <v>1.498040276853369</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.501546123481885</v>
+        <v>1.694094471470677</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.629269360964547</v>
+        <v>1.912649643388048</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.160842104651845</v>
+        <v>1.723743869722561</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.718160847434957</v>
+        <v>1.321033958060446</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.378172915840227</v>
+        <v>1.700529373029881</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.45631468131278</v>
+        <v>1.544421862046235</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.56012904882655</v>
+        <v>1.637033547722792</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.532018203822188</v>
+        <v>1.463791220740997</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.530793486537081</v>
+        <v>1.407665070493348</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.445533795916274</v>
+        <v>1.414821250071606</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.703189986408117</v>
+        <v>1.564735306636199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.552970842405714</v>
+        <v>1.449792081382941</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.405646011929601</v>
+        <v>1.453839423213603</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.357287071260457</v>
+        <v>1.543279826658124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.484768401508026</v>
+        <v>1.548240631052523</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.576104636968005</v>
+        <v>1.749622087929681</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.737387554812006</v>
+        <v>1.444433395728181</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.640123708649622</v>
+        <v>1.637277231183884</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.607284968658703</v>
+        <v>1.673157407266077</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.168060848664772</v>
+        <v>1.44139958554181</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.464749964116565</v>
+        <v>1.358172894303215</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.550209971065897</v>
+        <v>1.547530536250194</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.643254173380103</v>
+        <v>1.519520801466392</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.524526886174408</v>
+        <v>1.56124522367615</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.513634361547642</v>
+        <v>1.386420530982657</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.23989409660534</v>
+        <v>1.366018420457404</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.389059191488183</v>
+        <v>1.37556581292593</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.50420676774976</v>
+        <v>1.517931418551507</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.563930586812307</v>
+        <v>1.253318769152121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.322447251308776</v>
+        <v>1.752765487820674</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.565808370561841</v>
+        <v>1.325525027188026</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.491548713629434</v>
+        <v>1.461455738755453</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.417605325375609</v>
+        <v>1.475404450155402</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.378195386043564</v>
+        <v>1.501791019881022</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.32024698487061</v>
+        <v>1.505808359754726</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.463943978439846</v>
+        <v>1.589981653231147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.463876644340016</v>
+        <v>1.476927916688197</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.66418918134562</v>
+        <v>1.448148866364742</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.433670653533338</v>
+        <v>1.621846940846107</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1.686219825420345</v>
+        <v>1.557926184799361</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.26837393775617</v>
+        <v>1.520449813885396</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.500644089794092</v>
+        <v>1.400765508590062</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.444446431815348</v>
+        <v>1.704423372698031</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.647494009746605</v>
+        <v>1.447052632789271</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.432467422694241</v>
+        <v>1.691050665070577</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.42547063947532</v>
+        <v>1.773000991402887</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.505248095428792</v>
+        <v>1.654150995373501</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.228394815505307</v>
+        <v>1.386338181783072</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.485633525726504</v>
+        <v>1.430080857692232</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.461494558687193</v>
+        <v>1.447355190498829</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.360665389013657</v>
+        <v>1.532444307476176</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.866950196959796</v>
+        <v>1.744454867245928</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.343373603230389</v>
+        <v>1.190515693189748</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.223777448531137</v>
+        <v>1.796046866596378</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.504125600024045</v>
+        <v>1.576214197125089</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.700282219651546</v>
+        <v>1.507809326310742</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.416381927006527</v>
+        <v>1.555733203214134</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.399647734762454</v>
+        <v>1.689889175848592</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.480249270831356</v>
+        <v>1.754149983936068</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.56386140479027</v>
+        <v>1.32910136480073</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.513128876709518</v>
+        <v>1.394665290081534</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.450749864993756</v>
+        <v>1.606249947208939</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.422291856272007</v>
+        <v>1.569105175239115</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.394753022717104</v>
+        <v>1.632173946632627</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.362209452411764</v>
+        <v>1.274447044920765</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.675011943274106</v>
+        <v>1.166151154276102</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.34560631422381</v>
+        <v>1.508594576029291</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.370900277128923</v>
+        <v>1.359963232940779</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.350609457299583</v>
+        <v>1.55289311491743</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.562977232801179</v>
+        <v>1.571213744461299</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.410968954884216</v>
+        <v>1.503254917368152</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.35317895964489</v>
+        <v>1.576041717858731</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.363821215002259</v>
+        <v>1.727048996739516</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.719612475495874</v>
+        <v>1.588286291092646</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.573883775903091</v>
+        <v>1.426806392302397</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.564125627360178</v>
+        <v>1.290376207324102</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.62460157249476</v>
+        <v>1.365317342939524</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.540695601383561</v>
+        <v>1.587986436934983</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.572784888382951</v>
+        <v>1.684694952700743</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.476924218358871</v>
+        <v>1.528810640019454</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.316076174476734</v>
+        <v>1.558605546674968</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.438751871864372</v>
+        <v>1.637342952217749</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.41573512174347</v>
+        <v>1.666648931801671</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.646449088592529</v>
+        <v>1.268513553959757</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.423099021326694</v>
+        <v>1.635886130977931</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.136473838228603</v>
+        <v>1.285057320531111</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.708537579616382</v>
+        <v>1.793191244373871</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.467288209803984</v>
+        <v>1.175450975497717</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.483360939110944</v>
+        <v>1.290569894882406</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.642328794507901</v>
+        <v>1.64888354624145</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.18220386495051</v>
+        <v>1.433961113014824</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.617960233586714</v>
+        <v>1.453501988999589</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.727999715324106</v>
+        <v>1.525105451727702</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.361332545033013</v>
+        <v>1.500279473821276</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.393948090941806</v>
+        <v>1.40159322288613</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.307312883696585</v>
+        <v>1.487787788226947</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.318048041104762</v>
+        <v>1.415794864015773</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.569033873684997</v>
+        <v>1.513624727831921</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.619329633363122</v>
+        <v>1.377024437655162</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.501728746717157</v>
+        <v>1.412526655242111</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.72502004807599</v>
+        <v>1.325018247278884</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.498886088090716</v>
+        <v>1.597273598735907</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.56141103057471</v>
+        <v>1.493227736944054</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.55982577030485</v>
+        <v>1.51979472819475</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.241486482539306</v>
+        <v>1.422479406925593</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.460891598117231</v>
+        <v>1.52944505646361</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.394838616414669</v>
+        <v>1.799272087852428</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.500160840799975</v>
+        <v>1.47333913162887</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.403382071843447</v>
+        <v>1.434720781030818</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.544103935387189</v>
+        <v>1.692915738731302</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.4349236599111</v>
+        <v>1.293300449829917</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.347920119082384</v>
+        <v>1.44575527523151</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.457092854691554</v>
+        <v>1.709086687235496</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.285982672348737</v>
+        <v>1.608029828229239</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.541522457306287</v>
+        <v>1.46524516025138</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.41051599999298</v>
+        <v>1.474510006958992</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1.336679253950583</v>
+        <v>1.510744107857572</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.604284838353902</v>
+        <v>1.605240002955902</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.428365729032247</v>
+        <v>1.263006589591225</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.5638134811355</v>
+        <v>1.58645253623548</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.404288079593732</v>
+        <v>1.693395354078898</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.410750192709229</v>
+        <v>1.383329710078026</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.711416548328432</v>
+        <v>1.427270137423646</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.421852147037577</v>
+        <v>1.292237022944592</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.503414183691274</v>
+        <v>1.614847717711972</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.613355568538525</v>
+        <v>1.475967842132659</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.519437172636161</v>
+        <v>1.796796767869212</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1.550563644274229</v>
+        <v>1.567550855376415</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.531201880080317</v>
+        <v>1.47009634880719</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.48836005155013</v>
+        <v>1.643471504493899</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.547693658747256</v>
+        <v>1.704077431158364</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.335295489249445</v>
+        <v>1.479962116573532</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.206242893566122</v>
+        <v>1.455634392850467</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.370631657780716</v>
+        <v>1.402848013498609</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.485261595687591</v>
+        <v>1.531340011884206</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.711710185500847</v>
+        <v>1.250618454822433</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.452509567923578</v>
+        <v>1.640559193189622</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.428611071892622</v>
+        <v>1.786180638343822</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.568124959577645</v>
+        <v>1.323448003481792</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.532849638149073</v>
+        <v>1.636484585213361</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.460240303788146</v>
+        <v>1.189588684143615</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.555659822746846</v>
+        <v>1.703027857586266</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.448852828328028</v>
+        <v>1.473662655128314</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.635246589154973</v>
+        <v>1.70005193999408</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.429730410387842</v>
+        <v>1.641442557376596</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.145706152879576</v>
+        <v>1.348641774608002</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.71934976250676</v>
+        <v>1.633570151486114</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.463147305921213</v>
+        <v>1.667841261906503</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.361296129399269</v>
+        <v>1.599582610593488</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.664657975774008</v>
+        <v>1.62951647553661</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.531725602129934</v>
+        <v>1.780621481568501</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.762601081211543</v>
+        <v>1.517527532140303</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.630281500828007</v>
+        <v>1.440620436534476</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.467669648156537</v>
+        <v>1.30940248139462</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.525507975231845</v>
+        <v>1.260577235722775</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.630303408584549</v>
+        <v>1.309136379739396</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.454195566641812</v>
+        <v>1.600970377590227</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.541227083720209</v>
+        <v>1.466299112738276</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.192426076979164</v>
+        <v>1.541438203592248</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.485254777810238</v>
+        <v>1.406569929678914</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.612197557683778</v>
+        <v>1.263557946793525</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.377393146129278</v>
+        <v>1.69839004267141</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.732017894048774</v>
+        <v>1.595369713299266</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.480446832411247</v>
+        <v>1.465812217519084</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.527496863193375</v>
+        <v>1.555553636618809</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.330819540296969</v>
+        <v>1.678953027020677</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.472713960273748</v>
+        <v>1.687988382800759</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.395669105326026</v>
+        <v>1.46925863109244</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.506126786946139</v>
+        <v>1.644382906602746</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.539579259764069</v>
+        <v>1.633225532761001</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.374187971370299</v>
+        <v>1.711677602555896</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.608564118678322</v>
+        <v>1.544540554927147</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.587352034481884</v>
+        <v>1.278651007968488</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.38199132881028</v>
+        <v>1.398348578255451</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.624542971948029</v>
+        <v>1.818859958508754</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.472778084495122</v>
+        <v>1.63350512339733</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.835168448855906</v>
+        <v>1.720232499682155</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.590071811108338</v>
+        <v>1.529268383012057</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.738255197932681</v>
+        <v>1.37364792921592</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.423304038797941</v>
+        <v>1.478201010152159</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.515522949659507</v>
+        <v>1.340175844509058</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.603720032275888</v>
+        <v>1.527948548375372</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.545546115741678</v>
+        <v>1.405289508897782</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.514038288215313</v>
+        <v>1.590283869913262</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.420957657944935</v>
+        <v>1.774983278221211</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.630263741102377</v>
+        <v>1.599403586642299</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.484238268150044</v>
+        <v>1.433272998646528</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.619439454715973</v>
+        <v>1.671963833384588</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.733768590724225</v>
+        <v>1.477738030090821</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.276515036859036</v>
+        <v>1.308771454164679</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.34076344113233</v>
+        <v>1.625865107429346</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.473496140576505</v>
+        <v>1.383767333744456</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.499014945828529</v>
+        <v>1.376889787163986</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.786295016582748</v>
+        <v>1.59653021443669</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.642169693375664</v>
+        <v>1.608851261006244</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.293900924438964</v>
+        <v>1.363319057482541</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.661345692749259</v>
+        <v>1.682014985785169</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.364866270983835</v>
+        <v>1.717150019617845</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.40648416228231</v>
+        <v>1.656386750138348</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.363848019215648</v>
+        <v>1.1909352358727</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.300637816527425</v>
+        <v>1.416454318043927</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.558739869055935</v>
+        <v>1.568054423428719</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.427955302197074</v>
+        <v>1.268485291956212</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.611594398604463</v>
+        <v>1.501040539108284</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.471990677512869</v>
+        <v>1.443836783974492</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.462291227209404</v>
+        <v>1.483266264208037</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.554578709095074</v>
+        <v>1.433226398987005</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.5240224715158</v>
+        <v>1.640108737058552</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.465056460626214</v>
+        <v>1.6795754795471</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.380027182692065</v>
+        <v>1.464709637246632</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.417978398047275</v>
+        <v>1.43048785826148</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.366792700270814</v>
+        <v>1.600620288018015</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.217100810993151</v>
+        <v>1.624503234327079</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.680047875136432</v>
+        <v>1.473238488314414</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.268736765190483</v>
+        <v>1.384354120051503</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.598480877144638</v>
+        <v>1.288839050064557</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.533136368254985</v>
+        <v>1.415198510013205</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.471868504202277</v>
+        <v>1.60819913604839</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.2957788326687</v>
+        <v>1.690186072391399</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.613955474069705</v>
+        <v>1.794851530608475</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.54119711213299</v>
+        <v>1.728365291646207</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.192816826185491</v>
+        <v>1.559155683602796</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.555642641166703</v>
+        <v>1.502737780497439</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.702040115140928</v>
+        <v>1.433476554476956</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.389380909312988</v>
+        <v>1.481695736149065</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.584793227924376</v>
+        <v>1.474252714524668</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.418140387045131</v>
+        <v>1.471472793265068</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.534181193662581</v>
+        <v>1.616357623121715</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.617146972870331</v>
+        <v>1.535563180246133</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.565225235735004</v>
+        <v>1.885960470535534</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.612124806288071</v>
+        <v>1.266935571503797</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.314995916960608</v>
+        <v>1.336874050751737</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.4868126863159</v>
+        <v>1.6850130434626</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.655941982147307</v>
+        <v>1.345215639155312</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.441468102834638</v>
+        <v>1.54376572122558</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.613279939630578</v>
+        <v>1.176684891339135</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.493852560081195</v>
+        <v>1.340179006951298</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.490604446736013</v>
+        <v>1.317722961175718</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.459093604778585</v>
+        <v>1.910159273305182</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.341568618763635</v>
+        <v>1.622777977499575</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.49262861472127</v>
+        <v>1.232309198746475</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.558141809586766</v>
+        <v>1.467790815882605</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.337326785865808</v>
+        <v>1.378971043908816</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.749891351383795</v>
+        <v>1.454968267126361</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.424205309934523</v>
+        <v>1.662313151450787</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.612074699624499</v>
+        <v>1.618298967860906</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.394399168640539</v>
+        <v>1.272803980206867</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.654271181815805</v>
+        <v>1.444883552240567</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/28_localizer.xlsx
+++ b/sequences/28_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
   </si>
   <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
   </si>
   <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>dog/dog063.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.405078258607972</v>
+        <v>1.321331755105986</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.333593422039181</v>
+        <v>1.480147597020667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.30744374381369</v>
+        <v>1.897029127198522</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.343771174036429</v>
+        <v>1.513342432704556</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.720871450368674</v>
+        <v>1.65154108703838</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.571629594769871</v>
+        <v>1.456675994620869</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.352926143279818</v>
+        <v>1.702558689979651</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.498040276853369</v>
+        <v>1.769444736843885</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.694094471470677</v>
+        <v>1.446154878707058</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.912649643388048</v>
+        <v>1.73962831704133</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.723743869722561</v>
+        <v>1.384336701928675</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.321033958060446</v>
+        <v>1.112333881356585</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.700529373029881</v>
+        <v>1.349657100810744</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.544421862046235</v>
+        <v>1.437519596652613</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.637033547722792</v>
+        <v>1.343482680084092</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.463791220740997</v>
+        <v>1.511632010109935</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.407665070493348</v>
+        <v>1.498272288538523</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.414821250071606</v>
+        <v>1.587270759198381</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.564735306636199</v>
+        <v>1.256927258530179</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.449792081382941</v>
+        <v>1.407014591370744</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.453839423213603</v>
+        <v>1.386537795597398</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.543279826658124</v>
+        <v>1.702960702841274</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.548240631052523</v>
+        <v>1.617219934318067</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.749622087929681</v>
+        <v>1.848271737037629</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.444433395728181</v>
+        <v>1.891263458139621</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.637277231183884</v>
+        <v>1.396323621737375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.673157407266077</v>
+        <v>1.561454382190281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.44139958554181</v>
+        <v>1.390844338239395</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.358172894303215</v>
+        <v>1.565474106431269</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.547530536250194</v>
+        <v>1.386009784425781</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.519520801466392</v>
+        <v>1.643859033683345</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.56124522367615</v>
+        <v>1.563162996854557</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.386420530982657</v>
+        <v>1.587463922308785</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.366018420457404</v>
+        <v>1.282806360033441</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.37556581292593</v>
+        <v>1.453669301930852</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.517931418551507</v>
+        <v>1.604888587118024</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.253318769152121</v>
+        <v>1.602641372628479</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.752765487820674</v>
+        <v>1.333950539575794</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.325525027188026</v>
+        <v>1.631728591167962</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.461455738755453</v>
+        <v>1.760774710359523</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.475404450155402</v>
+        <v>1.512038476310658</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.501791019881022</v>
+        <v>1.56712833611642</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.505808359754726</v>
+        <v>1.439841116097577</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.589981653231147</v>
+        <v>1.363696927728368</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.476927916688197</v>
+        <v>1.57741220368612</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.448148866364742</v>
+        <v>1.539179337283146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.621846940846107</v>
+        <v>1.552103006525909</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.557926184799361</v>
+        <v>1.500405716131066</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.520449813885396</v>
+        <v>1.738454378375327</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.400765508590062</v>
+        <v>1.386201552679473</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.704423372698031</v>
+        <v>1.403359670654067</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.447052632789271</v>
+        <v>1.323167762578677</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.691050665070577</v>
+        <v>1.53616202917965</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.773000991402887</v>
+        <v>1.332718431348323</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.654150995373501</v>
+        <v>1.460001147629397</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.386338181783072</v>
+        <v>1.392449664613879</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.430080857692232</v>
+        <v>1.515640335020224</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.447355190498829</v>
+        <v>1.522907607583351</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.532444307476176</v>
+        <v>1.58012594784172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.744454867245928</v>
+        <v>1.571298377414562</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.190515693189748</v>
+        <v>1.222268687030626</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.796046866596378</v>
+        <v>1.374214506142031</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.576214197125089</v>
+        <v>1.498319362045691</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.507809326310742</v>
+        <v>1.454163570533836</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.555733203214134</v>
+        <v>1.600409441966937</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.689889175848592</v>
+        <v>1.422240592719052</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.754149983936068</v>
+        <v>1.564986079740353</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.32910136480073</v>
+        <v>1.585343295720158</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.394665290081534</v>
+        <v>1.489112626246816</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.606249947208939</v>
+        <v>1.5412452815827</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.569105175239115</v>
+        <v>1.315865582287197</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.632173946632627</v>
+        <v>1.62279027210447</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.274447044920765</v>
+        <v>1.682772054362456</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.166151154276102</v>
+        <v>1.304169375482072</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.508594576029291</v>
+        <v>1.535340514038847</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.359963232940779</v>
+        <v>1.551086153074831</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.55289311491743</v>
+        <v>1.727514155677995</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.571213744461299</v>
+        <v>1.757764765358874</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.503254917368152</v>
+        <v>1.529214661280971</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.576041717858731</v>
+        <v>1.493125290177626</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.727048996739516</v>
+        <v>1.359968888741792</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.588286291092646</v>
+        <v>1.430478486723387</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.426806392302397</v>
+        <v>1.909062763609559</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.290376207324102</v>
+        <v>1.501759590729326</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.365317342939524</v>
+        <v>1.897627825734647</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.587986436934983</v>
+        <v>1.500745400190548</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.684694952700743</v>
+        <v>1.323020451374186</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.528810640019454</v>
+        <v>1.707300767033163</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.558605546674968</v>
+        <v>1.892056414416527</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.637342952217749</v>
+        <v>1.590760823533535</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.666648931801671</v>
+        <v>1.636402641466062</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.268513553959757</v>
+        <v>1.297167759502186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.635886130977931</v>
+        <v>1.572121884501405</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.285057320531111</v>
+        <v>1.539110049375824</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.793191244373871</v>
+        <v>1.577664918194194</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.175450975497717</v>
+        <v>1.453363843783009</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.290569894882406</v>
+        <v>1.57052195009737</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.64888354624145</v>
+        <v>1.362562709418792</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.433961113014824</v>
+        <v>1.590315255118928</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.453501988999589</v>
+        <v>1.485368994283371</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.525105451727702</v>
+        <v>1.559537725882845</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.500279473821276</v>
+        <v>1.347088204513495</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.40159322288613</v>
+        <v>1.63621715881738</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1.487787788226947</v>
+        <v>1.456201045521105</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.415794864015773</v>
+        <v>1.665251321666897</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.513624727831921</v>
+        <v>1.420018601629074</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.377024437655162</v>
+        <v>1.417257882628414</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.412526655242111</v>
+        <v>1.618653247974823</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.325018247278884</v>
+        <v>1.503111748142039</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.597273598735907</v>
+        <v>1.42559569107857</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.493227736944054</v>
+        <v>1.524934857960494</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.51979472819475</v>
+        <v>1.463340017771669</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.422479406925593</v>
+        <v>1.251793887700103</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.52944505646361</v>
+        <v>1.37337578544202</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.799272087852428</v>
+        <v>1.941463364483345</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.47333913162887</v>
+        <v>1.193610256559129</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.434720781030818</v>
+        <v>1.421457990262075</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.692915738731302</v>
+        <v>1.318205236043697</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.293300449829917</v>
+        <v>1.299428841185137</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.44575527523151</v>
+        <v>1.471522612932315</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.709086687235496</v>
+        <v>1.350112555805397</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.608029828229239</v>
+        <v>1.460689108524424</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.46524516025138</v>
+        <v>1.734088443908029</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.474510006958992</v>
+        <v>1.532500344026916</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.510744107857572</v>
+        <v>1.832516213476052</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.605240002955902</v>
+        <v>1.67959654666678</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.263006589591225</v>
+        <v>1.374871519031467</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.58645253623548</v>
+        <v>1.234747713165487</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.693395354078898</v>
+        <v>1.460977430322342</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.383329710078026</v>
+        <v>1.400958780228917</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.427270137423646</v>
+        <v>1.433115217885665</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.292237022944592</v>
+        <v>1.522745268114161</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.614847717711972</v>
+        <v>1.299885170981122</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.475967842132659</v>
+        <v>1.851705982887041</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.796796767869212</v>
+        <v>1.582091923323448</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.567550855376415</v>
+        <v>1.355117965629928</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.47009634880719</v>
+        <v>1.551952329486747</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.643471504493899</v>
+        <v>1.50015400017511</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.704077431158364</v>
+        <v>1.695786939054179</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.479962116573532</v>
+        <v>1.541342669572742</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.455634392850467</v>
+        <v>1.480358720583886</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.402848013498609</v>
+        <v>1.420402916483195</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.531340011884206</v>
+        <v>1.596229590543044</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.250618454822433</v>
+        <v>1.401892857187031</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.640559193189622</v>
+        <v>1.62105659416084</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.786180638343822</v>
+        <v>1.577446447746147</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.323448003481792</v>
+        <v>1.438780723233891</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.636484585213361</v>
+        <v>1.524465776529988</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.189588684143615</v>
+        <v>1.333356561537927</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.703027857586266</v>
+        <v>1.689272132737832</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.473662655128314</v>
+        <v>1.557967361578976</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.70005193999408</v>
+        <v>1.303240767797127</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.641442557376596</v>
+        <v>1.328791571578118</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.348641774608002</v>
+        <v>1.705853445837733</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.633570151486114</v>
+        <v>1.42522557761673</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.667841261906503</v>
+        <v>1.11479028229211</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.599582610593488</v>
+        <v>1.510704894406299</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.62951647553661</v>
+        <v>1.50269123090959</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.780621481568501</v>
+        <v>1.262415788626819</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.517527532140303</v>
+        <v>1.459926220411375</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.440620436534476</v>
+        <v>1.511596730410836</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.30940248139462</v>
+        <v>1.520457722811109</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.260577235722775</v>
+        <v>1.560406223543245</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.309136379739396</v>
+        <v>1.475033430262541</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.600970377590227</v>
+        <v>1.450930048489495</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.466299112738276</v>
+        <v>1.554261530279235</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.541438203592248</v>
+        <v>1.739375170265721</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.406569929678914</v>
+        <v>1.633589302327233</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.263557946793525</v>
+        <v>1.44195452148217</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.69839004267141</v>
+        <v>1.415804908273736</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.595369713299266</v>
+        <v>1.377786414969577</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.465812217519084</v>
+        <v>1.711287905229844</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.555553636618809</v>
+        <v>1.337519795854273</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.678953027020677</v>
+        <v>1.325689224097959</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.687988382800759</v>
+        <v>1.559394808102375</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.46925863109244</v>
+        <v>1.440807663298669</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.644382906602746</v>
+        <v>1.244225769801214</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.633225532761001</v>
+        <v>1.494893808300958</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.711677602555896</v>
+        <v>1.373872085998241</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.544540554927147</v>
+        <v>1.620169640815715</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.278651007968488</v>
+        <v>1.324574260365803</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.398348578255451</v>
+        <v>1.486996010781773</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.818859958508754</v>
+        <v>1.700135737216903</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.63350512339733</v>
+        <v>1.605844470630312</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.720232499682155</v>
+        <v>1.708098398937017</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.529268383012057</v>
+        <v>1.310410322345148</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.37364792921592</v>
+        <v>1.288598562781528</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.478201010152159</v>
+        <v>1.216766346457948</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.340175844509058</v>
+        <v>1.35941295484779</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.527948548375372</v>
+        <v>1.422658091500391</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.405289508897782</v>
+        <v>1.579642763823922</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.590283869913262</v>
+        <v>1.685620150029416</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.774983278221211</v>
+        <v>1.402490422960874</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.599403586642299</v>
+        <v>1.347386808897054</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.433272998646528</v>
+        <v>1.479108416384949</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.671963833384588</v>
+        <v>1.765590930299372</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.477738030090821</v>
+        <v>1.345713688261105</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.308771454164679</v>
+        <v>1.637905224030748</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.625865107429346</v>
+        <v>1.574765124432752</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.383767333744456</v>
+        <v>1.671359667062012</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.376889787163986</v>
+        <v>1.55279399601596</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.59653021443669</v>
+        <v>1.463849397705608</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.608851261006244</v>
+        <v>1.270285862478574</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.363319057482541</v>
+        <v>1.596124678536921</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.682014985785169</v>
+        <v>1.529327616684759</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.717150019617845</v>
+        <v>1.398409889089891</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.656386750138348</v>
+        <v>1.267014867962798</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.1909352358727</v>
+        <v>1.538353505960303</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.416454318043927</v>
+        <v>1.240053032226268</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.568054423428719</v>
+        <v>1.351842489920682</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.268485291956212</v>
+        <v>1.291259141204989</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.501040539108284</v>
+        <v>1.489623007946627</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.443836783974492</v>
+        <v>1.319072277633687</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.483266264208037</v>
+        <v>1.717209749854574</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.433226398987005</v>
+        <v>1.439239243354304</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.640108737058552</v>
+        <v>1.545874759443975</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.6795754795471</v>
+        <v>1.723377842231272</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.464709637246632</v>
+        <v>1.244975368302128</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>1.43048785826148</v>
+        <v>1.622143573570993</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.600620288018015</v>
+        <v>1.474473873764516</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.624503234327079</v>
+        <v>1.512557085338659</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.473238488314414</v>
+        <v>1.410760933622823</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.384354120051503</v>
+        <v>1.590975516215832</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.288839050064557</v>
+        <v>1.740035853329533</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.415198510013205</v>
+        <v>1.19620336526624</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.60819913604839</v>
+        <v>1.692006922309274</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.690186072391399</v>
+        <v>1.363341121315242</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.794851530608475</v>
+        <v>1.474076964839318</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.728365291646207</v>
+        <v>1.224316915188789</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.559155683602796</v>
+        <v>1.371548537519399</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.502737780497439</v>
+        <v>1.519394095950088</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.433476554476956</v>
+        <v>1.691741426072459</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.481695736149065</v>
+        <v>1.634895232937299</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.474252714524668</v>
+        <v>1.46492800863396</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.471472793265068</v>
+        <v>1.526021521898802</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.616357623121715</v>
+        <v>1.846147283905017</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.535563180246133</v>
+        <v>1.524212354968718</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.885960470535534</v>
+        <v>1.4626438501624</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.266935571503797</v>
+        <v>1.50502774413555</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.336874050751737</v>
+        <v>1.336933582622649</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.6850130434626</v>
+        <v>1.371649133653168</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.345215639155312</v>
+        <v>1.344417771064954</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.54376572122558</v>
+        <v>1.715393134899095</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.176684891339135</v>
+        <v>1.377339053269659</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.340179006951298</v>
+        <v>1.558735577209965</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.317722961175718</v>
+        <v>1.453723454832826</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.910159273305182</v>
+        <v>1.491093202933648</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.622777977499575</v>
+        <v>1.286972946557629</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.232309198746475</v>
+        <v>1.745922071863306</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.467790815882605</v>
+        <v>1.323262208482024</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.378971043908816</v>
+        <v>1.499070401087164</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.454968267126361</v>
+        <v>1.420474411033785</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.662313151450787</v>
+        <v>1.500737564639278</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.618298967860906</v>
+        <v>1.371284302774861</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.272803980206867</v>
+        <v>1.31250849720995</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.444883552240567</v>
+        <v>1.460840631549206</v>
       </c>
     </row>
   </sheetData>
